--- a/Algemeen/Assetlist/Asset List GameLab2.xlsx
+++ b/Algemeen/Assetlist/Asset List GameLab2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="8610" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="9540" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="197">
   <si>
     <t>Weapons</t>
   </si>
@@ -385,15 +385,9 @@
     <t>pilaar</t>
   </si>
   <si>
-    <t>Unwrape Pilaar</t>
-  </si>
-  <si>
     <t>Crystal</t>
   </si>
   <si>
-    <t>Unwrape Crystal</t>
-  </si>
-  <si>
     <t>pilaar_003</t>
   </si>
   <si>
@@ -608,6 +602,12 @@
   </si>
   <si>
     <t>Interactie_007</t>
+  </si>
+  <si>
+    <t>corrupted egg</t>
+  </si>
+  <si>
+    <t>Corrupted egg</t>
   </si>
 </sst>
 </file>
@@ -1074,10 +1074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J184"/>
+  <dimension ref="A1:J188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F143" sqref="F143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1110,16 +1110,16 @@
         <v>15</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>120</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1127,7 +1127,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
@@ -1154,7 +1154,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>41</v>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>61</v>
@@ -1371,10 +1371,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>181</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>183</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>11</v>
@@ -1469,7 +1469,7 @@
         <v>10</v>
       </c>
       <c r="J15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1493,7 +1493,7 @@
         <v>9</v>
       </c>
       <c r="J16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
@@ -1517,7 +1517,7 @@
         <v>9</v>
       </c>
       <c r="J17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -1541,7 +1541,7 @@
         <v>9</v>
       </c>
       <c r="J18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
@@ -1565,7 +1565,7 @@
         <v>9</v>
       </c>
       <c r="J19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -1589,7 +1589,7 @@
         <v>9</v>
       </c>
       <c r="J20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
@@ -1653,7 +1653,7 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>6</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>11</v>
@@ -1922,7 +1922,7 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>11</v>
@@ -1941,7 +1941,7 @@
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>11</v>
@@ -1958,7 +1958,7 @@
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>11</v>
@@ -1996,7 +1996,7 @@
         <v>8</v>
       </c>
       <c r="J41" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
@@ -2020,7 +2020,7 @@
         <v>8</v>
       </c>
       <c r="J42" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
@@ -2044,7 +2044,7 @@
         <v>8</v>
       </c>
       <c r="J43" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
@@ -2058,7 +2058,7 @@
         <v>16</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F44" s="16"/>
       <c r="G44" s="16">
@@ -2068,7 +2068,7 @@
         <v>8</v>
       </c>
       <c r="J44" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
@@ -2082,7 +2082,7 @@
         <v>16</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F45" s="16"/>
       <c r="G45" s="16">
@@ -2092,7 +2092,7 @@
         <v>8</v>
       </c>
       <c r="J45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
@@ -2106,7 +2106,7 @@
         <v>16</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F46" s="16"/>
       <c r="G46" s="16">
@@ -2116,7 +2116,7 @@
         <v>5</v>
       </c>
       <c r="J46" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
@@ -2140,7 +2140,7 @@
         <v>10</v>
       </c>
       <c r="J47" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
@@ -2233,7 +2233,7 @@
         <v>18</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F53" s="16"/>
       <c r="G53" s="16"/>
@@ -2320,7 +2320,7 @@
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" s="14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>11</v>
@@ -2388,12 +2388,12 @@
         <v>7</v>
       </c>
       <c r="J61" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62" s="14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>12</v>
@@ -2402,17 +2402,17 @@
         <v>18</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F62" s="16"/>
       <c r="G62" s="16"/>
       <c r="J62" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B63" s="14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>12</v>
@@ -2421,12 +2421,12 @@
         <v>18</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F63" s="16"/>
       <c r="G63" s="16"/>
       <c r="J63" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
@@ -2450,7 +2450,7 @@
         <v>7</v>
       </c>
       <c r="J64" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
@@ -2530,7 +2530,7 @@
         <v>17</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F70" s="16"/>
       <c r="G70" s="16"/>
@@ -2709,7 +2709,7 @@
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>11</v>
@@ -2726,7 +2726,7 @@
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B81" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>11</v>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B82" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>11</v>
@@ -2793,7 +2793,7 @@
         <v>8</v>
       </c>
       <c r="J84" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.25">
@@ -2817,7 +2817,7 @@
         <v>8</v>
       </c>
       <c r="J85" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.25">
@@ -2841,7 +2841,7 @@
         <v>8</v>
       </c>
       <c r="J86" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.25">
@@ -2865,7 +2865,7 @@
         <v>8</v>
       </c>
       <c r="J87" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.25">
@@ -2873,7 +2873,7 @@
         <v>61</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D88" s="10" t="s">
         <v>17</v>
@@ -2889,21 +2889,21 @@
         <v>8</v>
       </c>
       <c r="J88" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B89" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D89" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E89" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F89" s="16"/>
       <c r="G89" s="16">
@@ -2913,21 +2913,21 @@
         <v>8</v>
       </c>
       <c r="J89" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B90" s="14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D90" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E90" s="14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F90" s="16"/>
       <c r="G90" s="16">
@@ -2937,21 +2937,21 @@
         <v>8</v>
       </c>
       <c r="J90" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B91" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D91" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E91" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F91" s="16"/>
       <c r="G91" s="16">
@@ -2961,7 +2961,7 @@
         <v>8</v>
       </c>
       <c r="J91" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.25">
@@ -2985,7 +2985,7 @@
         <v>8</v>
       </c>
       <c r="J92" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.25">
@@ -3037,7 +3037,7 @@
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>6</v>
@@ -3046,14 +3046,14 @@
         <v>19</v>
       </c>
       <c r="E97" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F97" s="16"/>
       <c r="G97" s="16"/>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" s="14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>6</v>
@@ -3062,7 +3062,7 @@
         <v>19</v>
       </c>
       <c r="E98" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F98" s="16"/>
       <c r="G98" s="16"/>
@@ -3085,7 +3085,7 @@
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>7</v>
@@ -3106,7 +3106,7 @@
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>7</v>
@@ -3115,14 +3115,14 @@
         <v>19</v>
       </c>
       <c r="E101" s="14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F101" s="16"/>
       <c r="G101" s="16"/>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>7</v>
@@ -3131,14 +3131,14 @@
         <v>19</v>
       </c>
       <c r="E102" s="14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F102" s="16"/>
       <c r="G102" s="16"/>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>7</v>
@@ -3147,14 +3147,14 @@
         <v>19</v>
       </c>
       <c r="E103" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F103" s="16"/>
       <c r="G103" s="16"/>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104" s="14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>7</v>
@@ -3163,14 +3163,14 @@
         <v>19</v>
       </c>
       <c r="E104" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F104" s="16"/>
       <c r="G104" s="16"/>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105" s="14" t="s">
-        <v>126</v>
+        <v>195</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>7</v>
@@ -3179,22 +3179,17 @@
         <v>19</v>
       </c>
       <c r="E105" s="14" t="s">
-        <v>123</v>
+        <v>196</v>
       </c>
       <c r="F105" s="16"/>
-      <c r="G105" s="16">
-        <v>4</v>
-      </c>
-      <c r="H105">
-        <v>8</v>
-      </c>
+      <c r="G105" s="16"/>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>8</v>
+        <v>124</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D106" s="10" t="s">
         <v>19</v>
@@ -3203,11 +3198,16 @@
         <v>122</v>
       </c>
       <c r="F106" s="16"/>
-      <c r="G106" s="16"/>
+      <c r="G106" s="16">
+        <v>4</v>
+      </c>
+      <c r="H106">
+        <v>8</v>
+      </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>8</v>
@@ -3216,309 +3216,285 @@
         <v>19</v>
       </c>
       <c r="E107" s="14" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F107" s="16"/>
       <c r="G107" s="16"/>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B108" s="14"/>
-      <c r="C108" s="6" t="s">
-        <v>10</v>
+      <c r="B108" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D108" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E108" s="14"/>
+      <c r="E108" s="14" t="s">
+        <v>153</v>
+      </c>
       <c r="F108" s="16"/>
       <c r="G108" s="16"/>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B109" s="14"/>
-      <c r="C109" s="6" t="s">
-        <v>10</v>
+      <c r="B109" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D109" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E109" s="14"/>
+      <c r="E109" s="14" t="s">
+        <v>154</v>
+      </c>
       <c r="F109" s="16"/>
       <c r="G109" s="16"/>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B110" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>11</v>
+        <v>186</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D110" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E110" s="14"/>
+      <c r="E110" s="14" t="s">
+        <v>186</v>
+      </c>
       <c r="F110" s="16"/>
       <c r="G110" s="16"/>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="14"/>
-      <c r="C111" s="7" t="s">
-        <v>11</v>
+      <c r="B111" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D111" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E111" s="14"/>
+      <c r="E111" s="14" t="s">
+        <v>189</v>
+      </c>
       <c r="F111" s="16"/>
       <c r="G111" s="16"/>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B112" s="14"/>
-      <c r="C112" s="7" t="s">
-        <v>11</v>
+      <c r="B112" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D112" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E112" s="14"/>
+      <c r="E112" s="14" t="s">
+        <v>196</v>
+      </c>
       <c r="F112" s="16"/>
       <c r="G112" s="16"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B113" s="14"/>
-      <c r="C113" s="7" t="s">
-        <v>11</v>
+      <c r="B113" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D113" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E113" s="14"/>
+      <c r="E113" s="14" t="s">
+        <v>122</v>
+      </c>
       <c r="F113" s="16"/>
       <c r="G113" s="16"/>
-      <c r="J113" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B114" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>12</v>
+        <v>191</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="D114" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E114" s="14" t="s">
-        <v>96</v>
-      </c>
+      <c r="E114" s="14"/>
       <c r="F114" s="16"/>
-      <c r="G114" s="16">
-        <v>6</v>
-      </c>
-      <c r="H114">
-        <v>6</v>
-      </c>
-      <c r="J114" t="s">
-        <v>167</v>
-      </c>
+      <c r="G114" s="16"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B115" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="C115" s="8" t="s">
-        <v>12</v>
+      <c r="B115" s="14"/>
+      <c r="C115" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="D115" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E115" s="14" t="s">
-        <v>99</v>
-      </c>
+      <c r="E115" s="14"/>
       <c r="F115" s="16"/>
-      <c r="G115" s="16">
-        <v>6</v>
-      </c>
-      <c r="H115">
-        <v>6</v>
-      </c>
-      <c r="J115" t="s">
-        <v>167</v>
-      </c>
+      <c r="G115" s="16"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B116" s="14"/>
-      <c r="C116" s="8" t="s">
-        <v>12</v>
+      <c r="C116" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="D116" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E116" s="14" t="s">
-        <v>172</v>
-      </c>
+      <c r="E116" s="14"/>
       <c r="F116" s="16"/>
       <c r="G116" s="16"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
+      <c r="C117" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="E117" s="14"/>
       <c r="F117" s="16"/>
       <c r="G117" s="16"/>
+      <c r="J117" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
+      <c r="B118" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E118" s="14" t="s">
+        <v>96</v>
+      </c>
       <c r="F118" s="16"/>
-      <c r="G118" s="16"/>
+      <c r="G118" s="16">
+        <v>6</v>
+      </c>
+      <c r="H118">
+        <v>6</v>
+      </c>
+      <c r="J118" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B119" s="14"/>
-      <c r="C119" s="9" t="s">
-        <v>13</v>
+      <c r="B119" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="D119" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E119" s="14"/>
+      <c r="E119" s="14" t="s">
+        <v>99</v>
+      </c>
       <c r="F119" s="16"/>
-      <c r="G119" s="16"/>
+      <c r="G119" s="16">
+        <v>6</v>
+      </c>
+      <c r="H119">
+        <v>6</v>
+      </c>
+      <c r="J119" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B120" s="14"/>
-      <c r="C120" s="9" t="s">
-        <v>13</v>
+      <c r="C120" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="D120" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E120" s="14"/>
+      <c r="E120" s="14" t="s">
+        <v>170</v>
+      </c>
       <c r="F120" s="16"/>
       <c r="G120" s="16"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B121" s="14"/>
-      <c r="C121" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D121" s="10" t="s">
-        <v>19</v>
-      </c>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
       <c r="E121" s="14"/>
       <c r="F121" s="16"/>
       <c r="G121" s="16"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
       <c r="E122" s="14"/>
       <c r="F122" s="16"/>
       <c r="G122" s="16"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>164</v>
-      </c>
-      <c r="B123" s="14" t="s">
+      <c r="B123" s="14"/>
+      <c r="C123" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E123" s="14"/>
+      <c r="F123" s="16"/>
+      <c r="G123" s="16"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B124" s="14"/>
+      <c r="C124" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D124" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E124" s="14"/>
+      <c r="F124" s="16"/>
+      <c r="G124" s="16"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B125" s="14"/>
+      <c r="C125" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E125" s="14"/>
+      <c r="F125" s="16"/>
+      <c r="G125" s="16"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E126" s="14"/>
+      <c r="F126" s="16"/>
+      <c r="G126" s="16"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>162</v>
+      </c>
+      <c r="B127" s="14" t="s">
         <v>94</v>
-      </c>
-      <c r="C123" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D123" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E123" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="F123" s="16"/>
-      <c r="G123" s="16">
-        <v>8</v>
-      </c>
-      <c r="H123">
-        <v>7</v>
-      </c>
-      <c r="J123" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B124" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C124" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D124" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E124" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="F124" s="16"/>
-      <c r="G124" s="16">
-        <v>9</v>
-      </c>
-      <c r="H124">
-        <v>8</v>
-      </c>
-      <c r="J124" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B125" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="C125" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D125" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E125" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="F125" s="16"/>
-      <c r="G125" s="16">
-        <v>9</v>
-      </c>
-      <c r="H125">
-        <v>8</v>
-      </c>
-      <c r="J125" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B126" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C126" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D126" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E126" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="F126" s="16"/>
-      <c r="G126" s="16">
-        <v>9</v>
-      </c>
-      <c r="H126">
-        <v>8</v>
-      </c>
-      <c r="J126" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B127" s="14" t="s">
-        <v>170</v>
       </c>
       <c r="C127" s="8" t="s">
         <v>12</v>
@@ -3527,22 +3503,22 @@
         <v>27</v>
       </c>
       <c r="E127" s="14" t="s">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="F127" s="16"/>
       <c r="G127" s="16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H127">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J127" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B128" s="14" t="s">
-        <v>176</v>
+        <v>95</v>
       </c>
       <c r="C128" s="8" t="s">
         <v>12</v>
@@ -3551,7 +3527,7 @@
         <v>27</v>
       </c>
       <c r="E128" s="14" t="s">
-        <v>176</v>
+        <v>95</v>
       </c>
       <c r="F128" s="16"/>
       <c r="G128" s="16">
@@ -3561,12 +3537,12 @@
         <v>8</v>
       </c>
       <c r="J128" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B129" s="14" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="C129" s="8" t="s">
         <v>12</v>
@@ -3575,7 +3551,7 @@
         <v>27</v>
       </c>
       <c r="E129" s="14" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="F129" s="16"/>
       <c r="G129" s="16">
@@ -3585,12 +3561,12 @@
         <v>8</v>
       </c>
       <c r="J129" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B130" s="14" t="s">
-        <v>178</v>
+        <v>132</v>
       </c>
       <c r="C130" s="8" t="s">
         <v>12</v>
@@ -3599,14 +3575,22 @@
         <v>27</v>
       </c>
       <c r="E130" s="14" t="s">
-        <v>178</v>
+        <v>132</v>
       </c>
       <c r="F130" s="16"/>
-      <c r="G130" s="16"/>
+      <c r="G130" s="16">
+        <v>9</v>
+      </c>
+      <c r="H130">
+        <v>8</v>
+      </c>
+      <c r="J130" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B131" s="14" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C131" s="8" t="s">
         <v>12</v>
@@ -3615,14 +3599,22 @@
         <v>27</v>
       </c>
       <c r="E131" s="14" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="F131" s="16"/>
-      <c r="G131" s="16"/>
+      <c r="G131" s="16">
+        <v>5</v>
+      </c>
+      <c r="H131">
+        <v>5</v>
+      </c>
+      <c r="J131" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B132" s="14" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C132" s="8" t="s">
         <v>12</v>
@@ -3631,7 +3623,7 @@
         <v>27</v>
       </c>
       <c r="E132" s="14" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F132" s="16"/>
       <c r="G132" s="16">
@@ -3641,169 +3633,169 @@
         <v>8</v>
       </c>
       <c r="J132" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E133" s="14"/>
+      <c r="B133" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E133" s="14" t="s">
+        <v>175</v>
+      </c>
       <c r="F133" s="16"/>
-      <c r="G133" s="16"/>
+      <c r="G133" s="16">
+        <v>9</v>
+      </c>
+      <c r="H133">
+        <v>8</v>
+      </c>
+      <c r="J133" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B134" s="14" t="s">
-        <v>97</v>
+        <v>176</v>
       </c>
       <c r="C134" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="E134" s="14" t="s">
-        <v>97</v>
+        <v>176</v>
       </c>
       <c r="F134" s="16"/>
       <c r="G134" s="16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H134">
         <v>8</v>
       </c>
       <c r="J134" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B135" s="14" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="C135" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="E135" s="14" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="F135" s="16"/>
       <c r="G135" s="16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H135">
+        <v>8</v>
+      </c>
+      <c r="J135" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B136" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E136" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F136" s="16"/>
+      <c r="G136" s="16">
         <v>9</v>
       </c>
-      <c r="J135" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E136" s="14"/>
-      <c r="F136" s="16"/>
-      <c r="G136" s="16"/>
+      <c r="H136">
+        <v>8</v>
+      </c>
+      <c r="J136" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>138</v>
-      </c>
-      <c r="B137" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D137" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E137" s="14" t="s">
-        <v>109</v>
-      </c>
+      <c r="E137" s="14"/>
       <c r="F137" s="16"/>
-      <c r="G137" s="16">
-        <v>6</v>
-      </c>
-      <c r="H137">
-        <v>8</v>
-      </c>
-      <c r="J137" t="s">
-        <v>167</v>
-      </c>
+      <c r="G137" s="16"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B138" s="14" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C138" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E138" s="14" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F138" s="16"/>
       <c r="G138" s="16">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H138">
         <v>8</v>
       </c>
       <c r="J138" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B139" s="14" t="s">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="C139" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E139" s="14" t="s">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="F139" s="16"/>
       <c r="G139" s="16">
+        <v>7</v>
+      </c>
+      <c r="H139">
         <v>9</v>
-      </c>
-      <c r="H139">
-        <v>8</v>
       </c>
       <c r="J139" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B140" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="C140" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D140" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E140" s="14" t="s">
-        <v>139</v>
-      </c>
+      <c r="E140" s="14"/>
       <c r="F140" s="16"/>
-      <c r="G140" s="16">
-        <v>8</v>
-      </c>
-      <c r="H140">
-        <v>8</v>
-      </c>
-      <c r="J140" t="s">
-        <v>169</v>
-      </c>
+      <c r="G140" s="16"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>136</v>
+      </c>
       <c r="B141" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C141" s="8" t="s">
         <v>12</v>
@@ -3812,126 +3804,126 @@
         <v>112</v>
       </c>
       <c r="E141" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F141" s="16"/>
       <c r="G141" s="16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H141">
         <v>8</v>
       </c>
       <c r="J141" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E142" s="14"/>
+      <c r="B142" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E142" s="14" t="s">
+        <v>110</v>
+      </c>
       <c r="F142" s="16"/>
-      <c r="G142" s="16"/>
+      <c r="G142" s="16">
+        <v>9</v>
+      </c>
+      <c r="H142">
+        <v>8</v>
+      </c>
+      <c r="J142" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>118</v>
-      </c>
       <c r="B143" s="14" t="s">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="C143" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E143" s="14" t="s">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="F143" s="16"/>
       <c r="G143" s="16">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H143">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J143" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B144" s="14" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="C144" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E144" s="14" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="F144" s="16"/>
       <c r="G144" s="16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H144">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J144" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B145" s="14" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="C145" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E145" s="14" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="F145" s="16"/>
       <c r="G145" s="16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H145">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J145" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B146" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D146" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="E146" s="14" t="s">
-        <v>116</v>
-      </c>
+      <c r="E146" s="14"/>
       <c r="F146" s="16"/>
-      <c r="G146" s="16">
-        <v>6</v>
-      </c>
-      <c r="H146">
-        <v>7</v>
-      </c>
-      <c r="J146" t="s">
-        <v>173</v>
-      </c>
+      <c r="G146" s="16"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>118</v>
+      </c>
       <c r="B147" s="14" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="C147" s="8" t="s">
         <v>12</v>
@@ -3940,7 +3932,7 @@
         <v>113</v>
       </c>
       <c r="E147" s="14" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="F147" s="16"/>
       <c r="G147" s="16">
@@ -3950,12 +3942,12 @@
         <v>7</v>
       </c>
       <c r="J147" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B148" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C148" s="8" t="s">
         <v>12</v>
@@ -3964,259 +3956,339 @@
         <v>113</v>
       </c>
       <c r="E148" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F148" s="16"/>
       <c r="G148" s="16">
         <v>6</v>
       </c>
       <c r="H148">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J148" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E149" s="14"/>
+      <c r="B149" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E149" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="F149" s="16"/>
-      <c r="G149" s="16"/>
+      <c r="G149" s="16">
+        <v>6</v>
+      </c>
+      <c r="H149">
+        <v>7</v>
+      </c>
+      <c r="J149" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>141</v>
-      </c>
       <c r="B150" s="14" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="C150" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="D150" s="10" t="s">
+        <v>113</v>
+      </c>
       <c r="E150" s="14" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="F150" s="16"/>
       <c r="G150" s="16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H150">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J150" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B151" s="14" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C151" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="D151" s="10" t="s">
+        <v>113</v>
+      </c>
       <c r="E151" s="14" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F151" s="16"/>
       <c r="G151" s="16">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H151">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J151" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B152" s="14" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="C152" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="D152" s="10" t="s">
+        <v>113</v>
+      </c>
       <c r="E152" s="14" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="F152" s="16"/>
       <c r="G152" s="16">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H152">
         <v>8</v>
       </c>
       <c r="J152" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B153" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="C153" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E153" s="14" t="s">
-        <v>144</v>
-      </c>
+      <c r="E153" s="14"/>
       <c r="F153" s="16"/>
-      <c r="G153" s="16">
-        <v>7</v>
-      </c>
-      <c r="H153">
-        <v>8</v>
-      </c>
-      <c r="J153" t="s">
-        <v>166</v>
-      </c>
+      <c r="G153" s="16"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>139</v>
+      </c>
       <c r="B154" s="14" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C154" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E154" s="14" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F154" s="16"/>
       <c r="G154" s="16">
+        <v>5</v>
+      </c>
+      <c r="H154">
+        <v>8</v>
+      </c>
+      <c r="J154" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B155" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E155" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="F155" s="16"/>
+      <c r="G155" s="16">
+        <v>9</v>
+      </c>
+      <c r="H155">
+        <v>8</v>
+      </c>
+      <c r="J155" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B156" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E156" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="F156" s="16"/>
+      <c r="G156" s="16">
+        <v>9</v>
+      </c>
+      <c r="H156">
+        <v>8</v>
+      </c>
+      <c r="J156" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B157" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E157" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="F157" s="16"/>
+      <c r="G157" s="16">
         <v>7</v>
       </c>
-      <c r="H154">
-        <v>8</v>
-      </c>
-      <c r="J154" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B155" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C155" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D155" s="18"/>
-      <c r="E155" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="F155" s="21"/>
-      <c r="G155" s="21">
+      <c r="H157">
+        <v>8</v>
+      </c>
+      <c r="J157" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B158" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E158" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F158" s="16"/>
+      <c r="G158" s="16">
+        <v>7</v>
+      </c>
+      <c r="H158">
+        <v>8</v>
+      </c>
+      <c r="J158" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B159" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C159" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D159" s="18"/>
+      <c r="E159" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="F159" s="21"/>
+      <c r="G159" s="21">
         <v>9</v>
       </c>
-      <c r="H155" s="19">
-        <v>8</v>
-      </c>
-      <c r="I155" s="19"/>
-      <c r="J155" s="19" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B156" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="C156" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D156" s="18"/>
-      <c r="E156" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="F156" s="21"/>
-      <c r="G156" s="21">
+      <c r="H159" s="19">
+        <v>8</v>
+      </c>
+      <c r="I159" s="19"/>
+      <c r="J159" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B160" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C160" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D160" s="18"/>
+      <c r="E160" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="F160" s="21"/>
+      <c r="G160" s="21">
         <v>4</v>
       </c>
-      <c r="H156" s="19">
+      <c r="H160" s="19">
         <v>4</v>
       </c>
-      <c r="I156" s="19"/>
-      <c r="J156" s="19" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E157" s="14"/>
-      <c r="F157" s="16"/>
-      <c r="G157" s="10"/>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E158" s="14"/>
-      <c r="F158" s="14"/>
-      <c r="G158" s="10"/>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E159" s="14"/>
-      <c r="F159" s="14"/>
-      <c r="G159" s="10"/>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E160" s="14"/>
-      <c r="F160" s="14"/>
-      <c r="G160" s="10"/>
-    </row>
-    <row r="161" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="I160" s="19"/>
+      <c r="J160" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="161" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E161" s="14"/>
-      <c r="F161" s="14"/>
-    </row>
-    <row r="162" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F161" s="16"/>
+      <c r="G161" s="10"/>
+    </row>
+    <row r="162" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E162" s="14"/>
       <c r="F162" s="14"/>
-    </row>
-    <row r="163" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="G162" s="10"/>
+    </row>
+    <row r="163" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E163" s="14"/>
       <c r="F163" s="14"/>
-    </row>
-    <row r="164" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="G163" s="10"/>
+    </row>
+    <row r="164" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E164" s="14"/>
       <c r="F164" s="14"/>
-    </row>
-    <row r="165" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="G164" s="10"/>
+    </row>
+    <row r="165" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E165" s="14"/>
       <c r="F165" s="14"/>
     </row>
-    <row r="166" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E166" s="14"/>
       <c r="F166" s="14"/>
     </row>
-    <row r="167" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E167" s="14"/>
       <c r="F167" s="14"/>
     </row>
-    <row r="168" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E168" s="14"/>
       <c r="F168" s="14"/>
     </row>
-    <row r="169" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E169" s="14"/>
       <c r="F169" s="14"/>
     </row>
-    <row r="170" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E170" s="14"/>
       <c r="F170" s="14"/>
     </row>
-    <row r="171" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E171" s="14"/>
       <c r="F171" s="14"/>
     </row>
-    <row r="172" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E172" s="14"/>
       <c r="F172" s="14"/>
     </row>
-    <row r="173" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E173" s="14"/>
       <c r="F173" s="14"/>
     </row>
-    <row r="174" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E174" s="14"/>
       <c r="F174" s="14"/>
     </row>
-    <row r="175" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E175" s="14"/>
       <c r="F175" s="14"/>
     </row>
-    <row r="176" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E176" s="14"/>
       <c r="F176" s="14"/>
     </row>
@@ -4251,6 +4323,22 @@
     <row r="184" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E184" s="14"/>
       <c r="F184" s="14"/>
+    </row>
+    <row r="185" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E185" s="14"/>
+      <c r="F185" s="14"/>
+    </row>
+    <row r="186" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E186" s="14"/>
+      <c r="F186" s="14"/>
+    </row>
+    <row r="187" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E187" s="14"/>
+      <c r="F187" s="14"/>
+    </row>
+    <row r="188" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E188" s="14"/>
+      <c r="F188" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G85">

--- a/Algemeen/Assetlist/Asset List GameLab2.xlsx
+++ b/Algemeen/Assetlist/Asset List GameLab2.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9540" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="10470" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$G$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$G$81</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="197">
   <si>
     <t>Weapons</t>
   </si>
@@ -1074,10 +1074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J188"/>
+  <dimension ref="A1:J181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F143" sqref="F143"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J121" sqref="J121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1413,44 +1413,56 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="14"/>
-      <c r="C13" s="7" t="s">
-        <v>11</v>
+      <c r="B13" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="13"/>
+      <c r="E13" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="J13" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="14"/>
-      <c r="C14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="B14" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>4</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="J14" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>12</v>
@@ -1459,14 +1471,14 @@
         <v>4</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16">
         <v>8</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J15" t="s">
         <v>164</v>
@@ -1474,16 +1486,16 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="10" t="s">
         <v>4</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="16">
@@ -1498,7 +1510,7 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>12</v>
@@ -1507,7 +1519,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="16">
@@ -1522,16 +1534,16 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="13" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="12" t="s">
         <v>4</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="16">
@@ -1545,51 +1557,37 @@
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>12</v>
+      <c r="B19" s="14"/>
+      <c r="C19" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>4</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="F19" s="16"/>
-      <c r="G19" s="16">
-        <v>8</v>
-      </c>
+      <c r="G19" s="16"/>
       <c r="H19">
-        <v>9</v>
-      </c>
-      <c r="J19" t="s">
-        <v>164</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="12" t="s">
+      <c r="B20" s="14"/>
+      <c r="C20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>4</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="F20" s="16"/>
-      <c r="G20" s="16">
-        <v>8</v>
-      </c>
+      <c r="G20" s="16"/>
       <c r="H20">
-        <v>9</v>
-      </c>
-      <c r="J20" t="s">
-        <v>164</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
@@ -1611,81 +1609,93 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="14"/>
-      <c r="C22" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>30</v>
-      </c>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22" s="14"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
-      <c r="H22">
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="14"/>
-      <c r="C23" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="D23" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>30</v>
+        <v>16</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>0</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
-      <c r="H23">
-        <v>6</v>
-      </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="14"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24" s="14"/>
+      <c r="B24" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>6</v>
+        <v>51</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
+        <v>92</v>
+      </c>
+      <c r="F25" s="16">
+        <v>4</v>
+      </c>
+      <c r="G25" s="16">
+        <v>8</v>
+      </c>
+      <c r="H25">
+        <v>9</v>
+      </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>5</v>
+        <v>52</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
+        <v>88</v>
+      </c>
+      <c r="F26" s="16">
+        <v>4</v>
+      </c>
+      <c r="G26" s="16">
+        <v>7</v>
+      </c>
+      <c r="H26">
+        <v>9</v>
+      </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>7</v>
@@ -1694,13 +1704,13 @@
         <v>16</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F27" s="16">
         <v>4</v>
       </c>
       <c r="G27" s="16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H27">
         <v>9</v>
@@ -1708,7 +1718,7 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>7</v>
@@ -1717,7 +1727,7 @@
         <v>16</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F28" s="16">
         <v>4</v>
@@ -1730,54 +1740,50 @@
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>7</v>
+      <c r="B29" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="F29" s="16">
-        <v>4</v>
-      </c>
-      <c r="G29" s="16">
-        <v>7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G29" s="16"/>
       <c r="H29">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>7</v>
+      <c r="B30" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="F30" s="16">
-        <v>4</v>
-      </c>
-      <c r="G30" s="16">
-        <v>7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G30" s="16"/>
       <c r="H30">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>8</v>
@@ -1798,10 +1804,10 @@
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>8</v>
+        <v>57</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>16</v>
@@ -1810,7 +1816,7 @@
         <v>30</v>
       </c>
       <c r="F32" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G32" s="16"/>
       <c r="H32">
@@ -1819,10 +1825,10 @@
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>8</v>
+        <v>58</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>16</v>
@@ -1831,7 +1837,7 @@
         <v>30</v>
       </c>
       <c r="F33" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G33" s="16"/>
       <c r="H33">
@@ -1840,7 +1846,7 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>10</v>
@@ -1861,10 +1867,10 @@
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>10</v>
+        <v>182</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>16</v>
@@ -1872,20 +1878,18 @@
       <c r="E35" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="16">
-        <v>3</v>
-      </c>
+      <c r="F35" s="16"/>
       <c r="G35" s="16"/>
       <c r="H35">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>10</v>
+        <v>133</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>16</v>
@@ -1893,17 +1897,15 @@
       <c r="E36" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F36" s="16">
-        <v>3</v>
-      </c>
+      <c r="F36" s="16"/>
       <c r="G36" s="16"/>
       <c r="H36">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="15" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>11</v>
@@ -1911,9 +1913,7 @@
       <c r="D37" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="14" t="s">
-        <v>30</v>
-      </c>
+      <c r="E37" s="14"/>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
       <c r="H37">
@@ -1922,7 +1922,7 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="15" t="s">
-        <v>133</v>
+        <v>183</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>11</v>
@@ -1941,38 +1941,50 @@
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>11</v>
+        <v>50</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="14"/>
+      <c r="E39" s="14" t="s">
+        <v>60</v>
+      </c>
       <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
+      <c r="G39" s="16">
+        <v>8</v>
+      </c>
       <c r="H39">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="J39" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>11</v>
+        <v>50</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
+      <c r="G40" s="16">
+        <v>8</v>
+      </c>
       <c r="H40">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="J40" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
@@ -1986,7 +1998,7 @@
         <v>16</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="F41" s="16"/>
       <c r="G41" s="16">
@@ -1996,7 +2008,7 @@
         <v>8</v>
       </c>
       <c r="J41" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
@@ -2010,7 +2022,7 @@
         <v>16</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="F42" s="16"/>
       <c r="G42" s="16">
@@ -2034,7 +2046,7 @@
         <v>16</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="F43" s="16"/>
       <c r="G43" s="16">
@@ -2044,7 +2056,7 @@
         <v>8</v>
       </c>
       <c r="J43" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
@@ -2058,14 +2070,14 @@
         <v>16</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F44" s="16"/>
       <c r="G44" s="16">
         <v>8</v>
       </c>
       <c r="H44">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J44" t="s">
         <v>165</v>
@@ -2082,14 +2094,14 @@
         <v>16</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="F45" s="16"/>
       <c r="G45" s="16">
         <v>8</v>
       </c>
       <c r="H45">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J45" t="s">
         <v>165</v>
@@ -2097,50 +2109,40 @@
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>12</v>
+        <v>119</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>135</v>
+        <v>30</v>
       </c>
       <c r="F46" s="16"/>
-      <c r="G46" s="16">
-        <v>8</v>
-      </c>
+      <c r="G46" s="16"/>
       <c r="H46">
-        <v>5</v>
-      </c>
-      <c r="J46" t="s">
-        <v>165</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>12</v>
+        <v>119</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="F47" s="16"/>
-      <c r="G47" s="16">
-        <v>8</v>
-      </c>
+      <c r="G47" s="16"/>
       <c r="H47">
-        <v>10</v>
-      </c>
-      <c r="J47" t="s">
-        <v>165</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
@@ -2163,213 +2165,222 @@
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>30</v>
-      </c>
+      <c r="B49" s="15"/>
+      <c r="E49" s="14"/>
       <c r="F49" s="16"/>
       <c r="G49" s="16"/>
-      <c r="H49">
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="D50" s="10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F50" s="16"/>
       <c r="G50" s="16"/>
-      <c r="H50">
-        <v>6</v>
-      </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="15"/>
-      <c r="E51" s="14"/>
+      <c r="B51" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>159</v>
+      </c>
       <c r="F51" s="16"/>
       <c r="G51" s="16"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>6</v>
+        <v>43</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>18</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
+      <c r="G52" s="16">
+        <v>3</v>
+      </c>
+      <c r="H52">
+        <v>7</v>
+      </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>5</v>
+        <v>44</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D53" s="10" t="s">
         <v>18</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>159</v>
+        <v>83</v>
       </c>
       <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
+      <c r="G53" s="16">
+        <v>3</v>
+      </c>
+      <c r="H53">
+        <v>7</v>
+      </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>7</v>
+        <v>48</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D54" s="10" t="s">
         <v>18</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F54" s="16"/>
-      <c r="G54" s="16">
-        <v>3</v>
-      </c>
+      <c r="G54" s="16"/>
       <c r="H54">
         <v>7</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>7</v>
+        <v>49</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D55" s="10" t="s">
         <v>18</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F55" s="16"/>
-      <c r="G55" s="16">
-        <v>3</v>
-      </c>
+      <c r="G55" s="16"/>
       <c r="H55">
         <v>7</v>
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>8</v>
+        <v>185</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E56" s="14" t="s">
-        <v>81</v>
-      </c>
+      <c r="E56" s="14"/>
       <c r="F56" s="16"/>
       <c r="G56" s="16"/>
       <c r="H56">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>8</v>
+        <v>102</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E57" s="14" t="s">
-        <v>82</v>
-      </c>
+      <c r="E57" s="14"/>
       <c r="F57" s="16"/>
       <c r="G57" s="16"/>
       <c r="H57">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>11</v>
+        <v>85</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="14"/>
+      <c r="E58" s="14" t="s">
+        <v>85</v>
+      </c>
       <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
+      <c r="G58" s="16">
+        <v>3</v>
+      </c>
       <c r="H58">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="J58" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>11</v>
+        <v>172</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E59" s="14"/>
+      <c r="E59" s="14" t="s">
+        <v>172</v>
+      </c>
       <c r="F59" s="16"/>
       <c r="G59" s="16"/>
-      <c r="H59">
-        <v>5</v>
+      <c r="J59" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B60" s="14"/>
-      <c r="C60" s="7" t="s">
-        <v>11</v>
+      <c r="B60" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E60" s="14"/>
+      <c r="E60" s="14" t="s">
+        <v>173</v>
+      </c>
       <c r="F60" s="16"/>
       <c r="G60" s="16"/>
-      <c r="H60">
-        <v>5</v>
+      <c r="J60" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61" s="14" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>12</v>
@@ -2378,7 +2389,7 @@
         <v>18</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="F61" s="16"/>
       <c r="G61" s="16">
@@ -2388,72 +2399,55 @@
         <v>7</v>
       </c>
       <c r="J61" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>12</v>
+      <c r="B62" s="14"/>
+      <c r="C62" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E62" s="14" t="s">
-        <v>172</v>
-      </c>
+      <c r="E62" s="14"/>
       <c r="F62" s="16"/>
       <c r="G62" s="16"/>
-      <c r="J62" t="s">
-        <v>164</v>
+      <c r="H62">
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>12</v>
+      <c r="B63" s="14"/>
+      <c r="C63" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E63" s="14" t="s">
-        <v>173</v>
-      </c>
+      <c r="E63" s="14"/>
       <c r="F63" s="16"/>
       <c r="G63" s="16"/>
-      <c r="J63" t="s">
-        <v>164</v>
+      <c r="H63">
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B64" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>12</v>
+      <c r="B64" s="14"/>
+      <c r="C64" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E64" s="14" t="s">
-        <v>42</v>
-      </c>
+      <c r="E64" s="14"/>
       <c r="F64" s="16"/>
-      <c r="G64" s="16">
-        <v>3</v>
-      </c>
+      <c r="G64" s="16"/>
       <c r="H64">
-        <v>7</v>
-      </c>
-      <c r="J64" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B65" s="14"/>
       <c r="C65" s="9" t="s">
         <v>13</v>
@@ -2468,143 +2462,155 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B66" s="14"/>
-      <c r="C66" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>18</v>
-      </c>
       <c r="E66" s="14"/>
       <c r="F66" s="16"/>
       <c r="G66" s="16"/>
-      <c r="H66">
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="14"/>
-      <c r="C67" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="D67" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" s="14"/>
+        <v>17</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>155</v>
+      </c>
       <c r="F67" s="16"/>
       <c r="G67" s="16"/>
-      <c r="H67">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="14"/>
-      <c r="C68" s="9" t="s">
-        <v>13</v>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" s="14"/>
+        <v>17</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="F68" s="16"/>
       <c r="G68" s="16"/>
-      <c r="H68">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="14"/>
-      <c r="E69" s="14"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B69" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G69" s="16">
+        <v>8</v>
+      </c>
+      <c r="H69">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B70" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>6</v>
+        <v>66</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D70" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G70" s="16">
+        <v>8</v>
+      </c>
+      <c r="H70">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B71" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>5</v>
+        <v>67</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="F71" s="16"/>
       <c r="G71" s="16"/>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H71">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B72" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>7</v>
+        <v>68</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E72" s="14" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F72" s="16"/>
-      <c r="G72" s="16">
-        <v>8</v>
-      </c>
+      <c r="G72" s="16"/>
       <c r="H72">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B73" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>7</v>
+        <v>71</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F73" s="16"/>
-      <c r="G73" s="16">
-        <v>8</v>
-      </c>
+      <c r="G73" s="16"/>
       <c r="H73">
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B74" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>8</v>
+        <v>72</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F74" s="16"/>
       <c r="G74" s="16"/>
@@ -2612,18 +2618,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B75" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>8</v>
+        <v>69</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F75" s="16"/>
       <c r="G75" s="16"/>
@@ -2631,18 +2637,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B76" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>9</v>
+        <v>70</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="D76" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F76" s="16"/>
       <c r="G76" s="16"/>
@@ -2650,140 +2656,165 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B77" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>9</v>
+        <v>192</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="D77" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E77" s="14" t="s">
-        <v>78</v>
-      </c>
+      <c r="E77" s="14"/>
       <c r="F77" s="16"/>
       <c r="G77" s="16"/>
       <c r="H77">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B78" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>10</v>
+        <v>193</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="D78" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E78" s="14" t="s">
-        <v>79</v>
-      </c>
+      <c r="E78" s="14"/>
       <c r="F78" s="16"/>
       <c r="G78" s="16"/>
       <c r="H78">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B79" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>10</v>
+        <v>194</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="D79" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="14" t="s">
-        <v>80</v>
-      </c>
+      <c r="E79" s="14"/>
       <c r="F79" s="16"/>
       <c r="G79" s="16"/>
       <c r="H79">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B80" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>11</v>
+        <v>104</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="D80" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E80" s="14"/>
+      <c r="E80" s="14" t="s">
+        <v>104</v>
+      </c>
       <c r="F80" s="16"/>
-      <c r="G80" s="16"/>
+      <c r="G80" s="16">
+        <v>8</v>
+      </c>
       <c r="H80">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="J80" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B81" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>11</v>
+        <v>101</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="D81" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E81" s="14"/>
+      <c r="E81" s="14" t="s">
+        <v>101</v>
+      </c>
       <c r="F81" s="16"/>
-      <c r="G81" s="16"/>
+      <c r="G81" s="16">
+        <v>8</v>
+      </c>
       <c r="H81">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="J81" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B82" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>11</v>
+        <v>102</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="D82" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E82" s="14"/>
+      <c r="E82" s="14" t="s">
+        <v>102</v>
+      </c>
       <c r="F82" s="16"/>
-      <c r="G82" s="16"/>
+      <c r="G82" s="16">
+        <v>8</v>
+      </c>
       <c r="H82">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="J82" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C83" s="7" t="s">
-        <v>11</v>
+      <c r="B83" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="D83" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E83" s="14"/>
+      <c r="E83" s="14" t="s">
+        <v>105</v>
+      </c>
       <c r="F83" s="16"/>
-      <c r="G83" s="16"/>
+      <c r="G83" s="16">
+        <v>8</v>
+      </c>
       <c r="H83">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="J83" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B84" s="14" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="D84" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E84" s="14" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="F84" s="16"/>
       <c r="G84" s="16">
@@ -2793,21 +2824,21 @@
         <v>8</v>
       </c>
       <c r="J84" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B85" s="14" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="D85" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E85" s="14" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="F85" s="16"/>
       <c r="G85" s="16">
@@ -2817,21 +2848,21 @@
         <v>8</v>
       </c>
       <c r="J85" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B86" s="14" t="s">
-        <v>102</v>
+        <v>166</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="D86" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E86" s="14" t="s">
-        <v>102</v>
+        <v>166</v>
       </c>
       <c r="F86" s="16"/>
       <c r="G86" s="16">
@@ -2846,16 +2877,16 @@
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B87" s="14" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="D87" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E87" s="14" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="F87" s="16"/>
       <c r="G87" s="16">
@@ -2865,21 +2896,21 @@
         <v>8</v>
       </c>
       <c r="J87" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B88" s="14" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="D88" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E88" s="14" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="F88" s="16"/>
       <c r="G88" s="16">
@@ -2893,199 +2924,172 @@
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B89" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>129</v>
+      <c r="C89" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="D89" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E89" s="14" t="s">
-        <v>131</v>
-      </c>
+      <c r="E89" s="14"/>
       <c r="F89" s="16"/>
-      <c r="G89" s="16">
-        <v>8</v>
-      </c>
+      <c r="G89" s="16"/>
       <c r="H89">
-        <v>8</v>
-      </c>
-      <c r="J89" t="s">
-        <v>165</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B90" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>129</v>
+      <c r="C90" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="D90" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E90" s="14" t="s">
-        <v>166</v>
-      </c>
+      <c r="E90" s="14"/>
       <c r="F90" s="16"/>
-      <c r="G90" s="16">
-        <v>8</v>
-      </c>
+      <c r="G90" s="16"/>
       <c r="H90">
-        <v>8</v>
-      </c>
-      <c r="J90" t="s">
-        <v>165</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B91" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>129</v>
+      <c r="C91" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="D91" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E91" s="14" t="s">
-        <v>130</v>
-      </c>
+      <c r="E91" s="14"/>
       <c r="F91" s="16"/>
-      <c r="G91" s="16">
-        <v>8</v>
-      </c>
+      <c r="G91" s="16"/>
       <c r="H91">
-        <v>8</v>
-      </c>
-      <c r="J91" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B92" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D92" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E92" s="14" t="s">
-        <v>103</v>
-      </c>
+      <c r="E92" s="14"/>
       <c r="F92" s="16"/>
-      <c r="G92" s="16">
-        <v>8</v>
-      </c>
-      <c r="H92">
-        <v>8</v>
-      </c>
-      <c r="J92" t="s">
-        <v>165</v>
-      </c>
+      <c r="G92" s="16"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C93" s="9" t="s">
-        <v>13</v>
+      <c r="B93" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E93" s="14"/>
+        <v>19</v>
+      </c>
+      <c r="E93" s="14" t="s">
+        <v>150</v>
+      </c>
       <c r="F93" s="16"/>
       <c r="G93" s="16"/>
-      <c r="H93">
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B94" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C94" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="D94" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E94" s="14"/>
+        <v>19</v>
+      </c>
+      <c r="E94" s="14" t="s">
+        <v>149</v>
+      </c>
       <c r="F94" s="16"/>
       <c r="G94" s="16"/>
-      <c r="H94">
-        <v>6</v>
-      </c>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C95" s="9" t="s">
-        <v>13</v>
+      <c r="B95" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E95" s="14"/>
+        <v>19</v>
+      </c>
+      <c r="E95" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="F95" s="16"/>
       <c r="G95" s="16"/>
-      <c r="H95">
-        <v>6</v>
-      </c>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E96" s="14"/>
+      <c r="B96" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E96" s="14" t="s">
+        <v>121</v>
+      </c>
       <c r="F96" s="16"/>
-      <c r="G96" s="16"/>
-    </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G96" s="16">
+        <v>4</v>
+      </c>
+      <c r="H96">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B97" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>6</v>
+        <v>151</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D97" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E97" s="14" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F97" s="16"/>
       <c r="G97" s="16"/>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B98" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>6</v>
+        <v>152</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D98" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E98" s="14" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F98" s="16"/>
       <c r="G98" s="16"/>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B99" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>5</v>
+        <v>186</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D99" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E99" s="14" t="s">
-        <v>63</v>
+        <v>186</v>
       </c>
       <c r="F99" s="16"/>
       <c r="G99" s="16"/>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B100" s="14" t="s">
-        <v>123</v>
+        <v>190</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>7</v>
@@ -3094,19 +3098,14 @@
         <v>19</v>
       </c>
       <c r="E100" s="14" t="s">
-        <v>121</v>
+        <v>189</v>
       </c>
       <c r="F100" s="16"/>
-      <c r="G100" s="16">
-        <v>4</v>
-      </c>
-      <c r="H100">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G100" s="16"/>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B101" s="14" t="s">
-        <v>151</v>
+        <v>195</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>7</v>
@@ -3115,14 +3114,14 @@
         <v>19</v>
       </c>
       <c r="E101" s="14" t="s">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="F101" s="16"/>
       <c r="G101" s="16"/>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B102" s="14" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>7</v>
@@ -3131,83 +3130,83 @@
         <v>19</v>
       </c>
       <c r="E102" s="14" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="F102" s="16"/>
-      <c r="G102" s="16"/>
-    </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G102" s="16">
+        <v>4</v>
+      </c>
+      <c r="H102">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B103" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>7</v>
+        <v>128</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D103" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E103" s="14" t="s">
-        <v>186</v>
+        <v>121</v>
       </c>
       <c r="F103" s="16"/>
       <c r="G103" s="16"/>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B104" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>7</v>
+        <v>127</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D104" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E104" s="14" t="s">
-        <v>189</v>
+        <v>153</v>
       </c>
       <c r="F104" s="16"/>
       <c r="G104" s="16"/>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B105" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>7</v>
+        <v>152</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D105" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E105" s="14" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="F105" s="16"/>
       <c r="G105" s="16"/>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B106" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>7</v>
+        <v>186</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D106" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E106" s="14" t="s">
-        <v>122</v>
+        <v>186</v>
       </c>
       <c r="F106" s="16"/>
-      <c r="G106" s="16">
-        <v>4</v>
-      </c>
-      <c r="H106">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G106" s="16"/>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B107" s="14" t="s">
-        <v>128</v>
+        <v>190</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>8</v>
@@ -3216,14 +3215,14 @@
         <v>19</v>
       </c>
       <c r="E107" s="14" t="s">
-        <v>121</v>
+        <v>189</v>
       </c>
       <c r="F107" s="16"/>
       <c r="G107" s="16"/>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B108" s="14" t="s">
-        <v>127</v>
+        <v>195</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>8</v>
@@ -3232,14 +3231,14 @@
         <v>19</v>
       </c>
       <c r="E108" s="14" t="s">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="F108" s="16"/>
       <c r="G108" s="16"/>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B109" s="14" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>8</v>
@@ -3248,105 +3247,107 @@
         <v>19</v>
       </c>
       <c r="E109" s="14" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="F109" s="16"/>
       <c r="G109" s="16"/>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B110" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>8</v>
+        <v>191</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="D110" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E110" s="14" t="s">
-        <v>186</v>
-      </c>
+      <c r="E110" s="14"/>
       <c r="F110" s="16"/>
       <c r="G110" s="16"/>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B111" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>8</v>
+        <v>125</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="D111" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E111" s="14" t="s">
-        <v>189</v>
+        <v>96</v>
       </c>
       <c r="F111" s="16"/>
-      <c r="G111" s="16"/>
-    </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G111" s="16">
+        <v>6</v>
+      </c>
+      <c r="H111">
+        <v>6</v>
+      </c>
+      <c r="J111" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B112" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>8</v>
+        <v>126</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="D112" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E112" s="14" t="s">
-        <v>196</v>
+        <v>99</v>
       </c>
       <c r="F112" s="16"/>
-      <c r="G112" s="16"/>
+      <c r="G112" s="16">
+        <v>6</v>
+      </c>
+      <c r="H112">
+        <v>6</v>
+      </c>
+      <c r="J112" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B113" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>8</v>
+      <c r="B113" s="14"/>
+      <c r="C113" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="D113" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E113" s="14" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="F113" s="16"/>
       <c r="G113" s="16"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B114" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D114" s="10" t="s">
-        <v>19</v>
-      </c>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
       <c r="E114" s="14"/>
       <c r="F114" s="16"/>
       <c r="G114" s="16"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B115" s="14"/>
-      <c r="C115" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D115" s="10" t="s">
-        <v>19</v>
-      </c>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
       <c r="E115" s="14"/>
       <c r="F115" s="16"/>
       <c r="G115" s="16"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B116" s="14"/>
-      <c r="C116" s="7" t="s">
-        <v>11</v>
+      <c r="C116" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="D116" s="10" t="s">
         <v>19</v>
@@ -3357,8 +3358,8 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B117" s="14"/>
-      <c r="C117" s="7" t="s">
-        <v>11</v>
+      <c r="C117" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="D117" s="10" t="s">
         <v>19</v>
@@ -3366,135 +3367,198 @@
       <c r="E117" s="14"/>
       <c r="F117" s="16"/>
       <c r="G117" s="16"/>
-      <c r="J117" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B118" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>12</v>
+      <c r="B118" s="14"/>
+      <c r="C118" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="D118" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E118" s="14" t="s">
-        <v>96</v>
-      </c>
+      <c r="E118" s="14"/>
       <c r="F118" s="16"/>
-      <c r="G118" s="16">
-        <v>6</v>
-      </c>
-      <c r="H118">
-        <v>6</v>
-      </c>
-      <c r="J118" t="s">
-        <v>165</v>
-      </c>
+      <c r="G118" s="16"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B119" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D119" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E119" s="14" t="s">
-        <v>99</v>
-      </c>
+      <c r="E119" s="14"/>
       <c r="F119" s="16"/>
-      <c r="G119" s="16">
-        <v>6</v>
-      </c>
-      <c r="H119">
-        <v>6</v>
-      </c>
-      <c r="J119" t="s">
-        <v>165</v>
-      </c>
+      <c r="G119" s="16"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B120" s="14"/>
+      <c r="A120" t="s">
+        <v>162</v>
+      </c>
+      <c r="B120" s="14" t="s">
+        <v>94</v>
+      </c>
       <c r="C120" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E120" s="14" t="s">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="F120" s="16"/>
-      <c r="G120" s="16"/>
+      <c r="G120" s="16">
+        <v>8</v>
+      </c>
+      <c r="H120">
+        <v>7</v>
+      </c>
+      <c r="J120" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
+      <c r="B121" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E121" s="14" t="s">
+        <v>95</v>
+      </c>
       <c r="F121" s="16"/>
-      <c r="G121" s="16"/>
+      <c r="G121" s="16">
+        <v>9</v>
+      </c>
+      <c r="H121">
+        <v>8</v>
+      </c>
+      <c r="J121" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
+      <c r="B122" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E122" s="14" t="s">
+        <v>187</v>
+      </c>
       <c r="F122" s="16"/>
-      <c r="G122" s="16"/>
+      <c r="G122" s="16">
+        <v>9</v>
+      </c>
+      <c r="H122">
+        <v>8</v>
+      </c>
+      <c r="J122" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B123" s="14"/>
-      <c r="C123" s="9" t="s">
-        <v>13</v>
+      <c r="B123" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E123" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="E123" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="F123" s="16"/>
-      <c r="G123" s="16"/>
+      <c r="G123" s="16">
+        <v>9</v>
+      </c>
+      <c r="H123">
+        <v>8</v>
+      </c>
+      <c r="J123" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B124" s="14"/>
-      <c r="C124" s="9" t="s">
-        <v>13</v>
+      <c r="B124" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E124" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="E124" s="14" t="s">
+        <v>168</v>
+      </c>
       <c r="F124" s="16"/>
-      <c r="G124" s="16"/>
+      <c r="G124" s="16">
+        <v>5</v>
+      </c>
+      <c r="H124">
+        <v>5</v>
+      </c>
+      <c r="J124" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B125" s="14"/>
-      <c r="C125" s="9" t="s">
-        <v>13</v>
+      <c r="B125" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E125" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="E125" s="14" t="s">
+        <v>174</v>
+      </c>
       <c r="F125" s="16"/>
-      <c r="G125" s="16"/>
+      <c r="G125" s="16">
+        <v>9</v>
+      </c>
+      <c r="H125">
+        <v>8</v>
+      </c>
+      <c r="J125" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E126" s="14"/>
+      <c r="B126" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E126" s="14" t="s">
+        <v>175</v>
+      </c>
       <c r="F126" s="16"/>
-      <c r="G126" s="16"/>
+      <c r="G126" s="16">
+        <v>9</v>
+      </c>
+      <c r="H126">
+        <v>8</v>
+      </c>
+      <c r="J126" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>162</v>
-      </c>
       <c r="B127" s="14" t="s">
-        <v>94</v>
+        <v>176</v>
       </c>
       <c r="C127" s="8" t="s">
         <v>12</v>
@@ -3503,22 +3567,22 @@
         <v>27</v>
       </c>
       <c r="E127" s="14" t="s">
-        <v>94</v>
+        <v>176</v>
       </c>
       <c r="F127" s="16"/>
       <c r="G127" s="16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H127">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J127" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B128" s="14" t="s">
-        <v>95</v>
+        <v>177</v>
       </c>
       <c r="C128" s="8" t="s">
         <v>12</v>
@@ -3527,7 +3591,7 @@
         <v>27</v>
       </c>
       <c r="E128" s="14" t="s">
-        <v>95</v>
+        <v>177</v>
       </c>
       <c r="F128" s="16"/>
       <c r="G128" s="16">
@@ -3542,7 +3606,7 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B129" s="14" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="C129" s="8" t="s">
         <v>12</v>
@@ -3551,7 +3615,7 @@
         <v>27</v>
       </c>
       <c r="E129" s="14" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="F129" s="16"/>
       <c r="G129" s="16">
@@ -3561,141 +3625,106 @@
         <v>8</v>
       </c>
       <c r="J129" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B130" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="C130" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D130" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E130" s="14" t="s">
-        <v>132</v>
-      </c>
+      <c r="E130" s="14"/>
       <c r="F130" s="16"/>
-      <c r="G130" s="16">
-        <v>9</v>
-      </c>
-      <c r="H130">
-        <v>8</v>
-      </c>
-      <c r="J130" t="s">
-        <v>164</v>
-      </c>
+      <c r="G130" s="16"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B131" s="14" t="s">
-        <v>168</v>
+        <v>97</v>
       </c>
       <c r="C131" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="E131" s="14" t="s">
-        <v>168</v>
+        <v>97</v>
       </c>
       <c r="F131" s="16"/>
       <c r="G131" s="16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H131">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J131" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B132" s="14" t="s">
-        <v>174</v>
+        <v>98</v>
       </c>
       <c r="C132" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="E132" s="14" t="s">
-        <v>174</v>
+        <v>98</v>
       </c>
       <c r="F132" s="16"/>
       <c r="G132" s="16">
+        <v>7</v>
+      </c>
+      <c r="H132">
         <v>9</v>
       </c>
-      <c r="H132">
-        <v>8</v>
-      </c>
       <c r="J132" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B133" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="C133" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D133" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E133" s="14" t="s">
-        <v>175</v>
-      </c>
+      <c r="E133" s="14"/>
       <c r="F133" s="16"/>
-      <c r="G133" s="16">
-        <v>9</v>
-      </c>
-      <c r="H133">
-        <v>8</v>
-      </c>
-      <c r="J133" t="s">
-        <v>171</v>
-      </c>
+      <c r="G133" s="16"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>136</v>
+      </c>
       <c r="B134" s="14" t="s">
-        <v>176</v>
+        <v>109</v>
       </c>
       <c r="C134" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="E134" s="14" t="s">
-        <v>176</v>
+        <v>109</v>
       </c>
       <c r="F134" s="16"/>
       <c r="G134" s="16">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H134">
         <v>8</v>
       </c>
       <c r="J134" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B135" s="14" t="s">
-        <v>177</v>
+        <v>110</v>
       </c>
       <c r="C135" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="E135" s="14" t="s">
-        <v>177</v>
+        <v>110</v>
       </c>
       <c r="F135" s="16"/>
       <c r="G135" s="16">
@@ -3705,21 +3734,21 @@
         <v>8</v>
       </c>
       <c r="J135" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B136" s="14" t="s">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="C136" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="E136" s="14" t="s">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="F136" s="16"/>
       <c r="G136" s="16">
@@ -3729,26 +3758,45 @@
         <v>8</v>
       </c>
       <c r="J136" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E137" s="14"/>
+      <c r="B137" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E137" s="14" t="s">
+        <v>137</v>
+      </c>
       <c r="F137" s="16"/>
-      <c r="G137" s="16"/>
+      <c r="G137" s="16">
+        <v>8</v>
+      </c>
+      <c r="H137">
+        <v>8</v>
+      </c>
+      <c r="J137" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B138" s="14" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="C138" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="E138" s="14" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="F138" s="16"/>
       <c r="G138" s="16">
@@ -3758,159 +3806,159 @@
         <v>8</v>
       </c>
       <c r="J138" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B139" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D139" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E139" s="14" t="s">
-        <v>98</v>
-      </c>
+      <c r="E139" s="14"/>
       <c r="F139" s="16"/>
-      <c r="G139" s="16">
+      <c r="G139" s="16"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>118</v>
+      </c>
+      <c r="B140" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E140" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="F140" s="16"/>
+      <c r="G140" s="16">
+        <v>6</v>
+      </c>
+      <c r="H140">
         <v>7</v>
       </c>
-      <c r="H139">
-        <v>9</v>
-      </c>
-      <c r="J139" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E140" s="14"/>
-      <c r="F140" s="16"/>
-      <c r="G140" s="16"/>
+      <c r="J140" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>136</v>
-      </c>
       <c r="B141" s="14" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C141" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E141" s="14" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F141" s="16"/>
       <c r="G141" s="16">
         <v>6</v>
       </c>
       <c r="H141">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J141" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B142" s="14" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="C142" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E142" s="14" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="F142" s="16"/>
       <c r="G142" s="16">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H142">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J142" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B143" s="14" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="C143" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E143" s="14" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="F143" s="16"/>
       <c r="G143" s="16">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H143">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J143" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B144" s="14" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C144" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E144" s="14" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F144" s="16"/>
       <c r="G144" s="16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H144">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J144" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B145" s="14" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C145" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E145" s="14" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F145" s="16"/>
       <c r="G145" s="16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H145">
         <v>8</v>
       </c>
       <c r="J145" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
@@ -3920,375 +3968,251 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="B147" s="14" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="C147" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D147" s="10" t="s">
-        <v>113</v>
-      </c>
       <c r="E147" s="14" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="F147" s="16"/>
       <c r="G147" s="16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H147">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J147" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B148" s="14" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="C148" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D148" s="10" t="s">
-        <v>113</v>
-      </c>
       <c r="E148" s="14" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="F148" s="16"/>
       <c r="G148" s="16">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H148">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J148" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B149" s="14" t="s">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="C149" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D149" s="10" t="s">
-        <v>113</v>
-      </c>
       <c r="E149" s="14" t="s">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="F149" s="16"/>
       <c r="G149" s="16">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H149">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J149" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B150" s="14" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="C150" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D150" s="10" t="s">
-        <v>113</v>
-      </c>
       <c r="E150" s="14" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="F150" s="16"/>
       <c r="G150" s="16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H150">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J150" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B151" s="14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C151" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D151" s="10" t="s">
-        <v>113</v>
-      </c>
       <c r="E151" s="14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F151" s="16"/>
       <c r="G151" s="16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H151">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J151" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B152" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="C152" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D152" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="E152" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="F152" s="16"/>
-      <c r="G152" s="16">
-        <v>6</v>
-      </c>
-      <c r="H152">
-        <v>8</v>
-      </c>
-      <c r="J152" t="s">
-        <v>171</v>
+      <c r="B152" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C152" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D152" s="18"/>
+      <c r="E152" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="F152" s="21"/>
+      <c r="G152" s="21">
+        <v>9</v>
+      </c>
+      <c r="H152" s="19">
+        <v>8</v>
+      </c>
+      <c r="I152" s="19"/>
+      <c r="J152" s="19" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E153" s="14"/>
-      <c r="F153" s="16"/>
-      <c r="G153" s="16"/>
+      <c r="B153" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C153" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D153" s="18"/>
+      <c r="E153" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="F153" s="21"/>
+      <c r="G153" s="21">
+        <v>4</v>
+      </c>
+      <c r="H153" s="19">
+        <v>4</v>
+      </c>
+      <c r="I153" s="19"/>
+      <c r="J153" s="19" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>139</v>
-      </c>
-      <c r="B154" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="C154" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E154" s="14" t="s">
-        <v>140</v>
-      </c>
+      <c r="E154" s="14"/>
       <c r="F154" s="16"/>
-      <c r="G154" s="16">
-        <v>5</v>
-      </c>
-      <c r="H154">
-        <v>8</v>
-      </c>
-      <c r="J154" t="s">
-        <v>164</v>
-      </c>
+      <c r="G154" s="10"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B155" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="C155" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E155" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="F155" s="16"/>
-      <c r="G155" s="16">
-        <v>9</v>
-      </c>
-      <c r="H155">
-        <v>8</v>
-      </c>
-      <c r="J155" t="s">
-        <v>164</v>
-      </c>
+      <c r="E155" s="14"/>
+      <c r="F155" s="14"/>
+      <c r="G155" s="10"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B156" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="C156" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E156" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="F156" s="16"/>
-      <c r="G156" s="16">
-        <v>9</v>
-      </c>
-      <c r="H156">
-        <v>8</v>
-      </c>
-      <c r="J156" t="s">
-        <v>164</v>
-      </c>
+      <c r="E156" s="14"/>
+      <c r="F156" s="14"/>
+      <c r="G156" s="10"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B157" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="C157" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E157" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="F157" s="16"/>
-      <c r="G157" s="16">
-        <v>7</v>
-      </c>
-      <c r="H157">
-        <v>8</v>
-      </c>
-      <c r="J157" t="s">
-        <v>164</v>
-      </c>
+      <c r="E157" s="14"/>
+      <c r="F157" s="14"/>
+      <c r="G157" s="10"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B158" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="C158" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E158" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="F158" s="16"/>
-      <c r="G158" s="16">
-        <v>7</v>
-      </c>
-      <c r="H158">
-        <v>8</v>
-      </c>
-      <c r="J158" t="s">
-        <v>164</v>
-      </c>
+      <c r="E158" s="14"/>
+      <c r="F158" s="14"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B159" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="C159" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D159" s="18"/>
-      <c r="E159" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="F159" s="21"/>
-      <c r="G159" s="21">
-        <v>9</v>
-      </c>
-      <c r="H159" s="19">
-        <v>8</v>
-      </c>
-      <c r="I159" s="19"/>
-      <c r="J159" s="19" t="s">
-        <v>164</v>
-      </c>
+      <c r="E159" s="14"/>
+      <c r="F159" s="14"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B160" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="C160" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D160" s="18"/>
-      <c r="E160" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="F160" s="21"/>
-      <c r="G160" s="21">
-        <v>4</v>
-      </c>
-      <c r="H160" s="19">
-        <v>4</v>
-      </c>
-      <c r="I160" s="19"/>
-      <c r="J160" s="19" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="161" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E160" s="14"/>
+      <c r="F160" s="14"/>
+    </row>
+    <row r="161" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E161" s="14"/>
-      <c r="F161" s="16"/>
-      <c r="G161" s="10"/>
-    </row>
-    <row r="162" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F161" s="14"/>
+    </row>
+    <row r="162" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E162" s="14"/>
       <c r="F162" s="14"/>
-      <c r="G162" s="10"/>
-    </row>
-    <row r="163" spans="5:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E163" s="14"/>
       <c r="F163" s="14"/>
-      <c r="G163" s="10"/>
-    </row>
-    <row r="164" spans="5:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E164" s="14"/>
       <c r="F164" s="14"/>
-      <c r="G164" s="10"/>
-    </row>
-    <row r="165" spans="5:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E165" s="14"/>
       <c r="F165" s="14"/>
     </row>
-    <row r="166" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E166" s="14"/>
       <c r="F166" s="14"/>
     </row>
-    <row r="167" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E167" s="14"/>
       <c r="F167" s="14"/>
     </row>
-    <row r="168" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E168" s="14"/>
       <c r="F168" s="14"/>
     </row>
-    <row r="169" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E169" s="14"/>
       <c r="F169" s="14"/>
     </row>
-    <row r="170" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E170" s="14"/>
       <c r="F170" s="14"/>
     </row>
-    <row r="171" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E171" s="14"/>
       <c r="F171" s="14"/>
     </row>
-    <row r="172" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E172" s="14"/>
       <c r="F172" s="14"/>
     </row>
-    <row r="173" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E173" s="14"/>
       <c r="F173" s="14"/>
     </row>
-    <row r="174" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E174" s="14"/>
       <c r="F174" s="14"/>
     </row>
-    <row r="175" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E175" s="14"/>
       <c r="F175" s="14"/>
     </row>
-    <row r="176" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E176" s="14"/>
       <c r="F176" s="14"/>
     </row>
@@ -4312,36 +4236,8 @@
       <c r="E181" s="14"/>
       <c r="F181" s="14"/>
     </row>
-    <row r="182" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E182" s="14"/>
-      <c r="F182" s="14"/>
-    </row>
-    <row r="183" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E183" s="14"/>
-      <c r="F183" s="14"/>
-    </row>
-    <row r="184" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E184" s="14"/>
-      <c r="F184" s="14"/>
-    </row>
-    <row r="185" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E185" s="14"/>
-      <c r="F185" s="14"/>
-    </row>
-    <row r="186" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E186" s="14"/>
-      <c r="F186" s="14"/>
-    </row>
-    <row r="187" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E187" s="14"/>
-      <c r="F187" s="14"/>
-    </row>
-    <row r="188" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E188" s="14"/>
-      <c r="F188" s="14"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:G85">
+  <autoFilter ref="A1:G81">
     <sortState ref="A2:F64">
       <sortCondition ref="D1:D64"/>
     </sortState>

--- a/Algemeen/Assetlist/Asset List GameLab2.xlsx
+++ b/Algemeen/Assetlist/Asset List GameLab2.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10470" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="12330" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$G$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$G$82</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="209">
   <si>
     <t>Weapons</t>
   </si>
@@ -562,18 +562,6 @@
     <t>H. HUD</t>
   </si>
   <si>
-    <t>Combat</t>
-  </si>
-  <si>
-    <t>Shoot</t>
-  </si>
-  <si>
-    <t>Switch</t>
-  </si>
-  <si>
-    <t>Empty</t>
-  </si>
-  <si>
     <t>PickUp</t>
   </si>
   <si>
@@ -608,6 +596,54 @@
   </si>
   <si>
     <t>Corrupted egg</t>
+  </si>
+  <si>
+    <t>Shoot_007</t>
+  </si>
+  <si>
+    <t>reload_007</t>
+  </si>
+  <si>
+    <t>Empty_007</t>
+  </si>
+  <si>
+    <t>Switch_007</t>
+  </si>
+  <si>
+    <t>Movement_008</t>
+  </si>
+  <si>
+    <t>Health_008</t>
+  </si>
+  <si>
+    <t>Interactie_008</t>
+  </si>
+  <si>
+    <t>Melee_008</t>
+  </si>
+  <si>
+    <t>Weapon Switch_008</t>
+  </si>
+  <si>
+    <t>Shield_008</t>
+  </si>
+  <si>
+    <t>Hit_009</t>
+  </si>
+  <si>
+    <t>Suite_009</t>
+  </si>
+  <si>
+    <t>Weapon manager</t>
+  </si>
+  <si>
+    <t>PickUpManager</t>
+  </si>
+  <si>
+    <t>logboek_001</t>
+  </si>
+  <si>
+    <t>logboek</t>
   </si>
 </sst>
 </file>
@@ -617,7 +653,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -639,6 +675,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2C2D30"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -721,7 +763,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -762,6 +804,7 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Ongeldig" xfId="1" builtinId="27"/>
@@ -1074,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J181"/>
+  <dimension ref="A1:J183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J121" sqref="J121"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1347,7 +1390,7 @@
         <v>178</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>61</v>
+        <v>188</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>11</v>
@@ -1374,7 +1417,7 @@
         <v>179</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>11</v>
@@ -1395,7 +1438,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
-        <v>86</v>
+        <v>190</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>11</v>
@@ -1414,7 +1457,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
-        <v>61</v>
+        <v>197</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>12</v>
@@ -1438,7 +1481,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="13" t="s">
-        <v>85</v>
+        <v>198</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>12</v>
@@ -1462,7 +1505,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>12</v>
@@ -1486,7 +1529,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="s">
-        <v>87</v>
+        <v>200</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>12</v>
@@ -1510,7 +1553,7 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
-        <v>62</v>
+        <v>201</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>12</v>
@@ -1534,7 +1577,7 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="13" t="s">
-        <v>93</v>
+        <v>202</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>12</v>
@@ -1557,7 +1600,9 @@
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="14"/>
+      <c r="B19" s="14" t="s">
+        <v>203</v>
+      </c>
       <c r="C19" s="9" t="s">
         <v>13</v>
       </c>
@@ -1574,7 +1619,9 @@
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="14"/>
+      <c r="B20" s="14" t="s">
+        <v>204</v>
+      </c>
       <c r="C20" s="9" t="s">
         <v>13</v>
       </c>
@@ -1592,64 +1639,70 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="14"/>
-      <c r="C21" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>30</v>
-      </c>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21" s="14"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
-      <c r="H21">
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="14"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22" s="14"/>
+      <c r="D22" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>6</v>
+        <v>47</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
+        <v>92</v>
+      </c>
+      <c r="F24" s="16">
+        <v>4</v>
+      </c>
+      <c r="G24" s="16">
+        <v>8</v>
+      </c>
+      <c r="H24">
+        <v>9</v>
+      </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>7</v>
@@ -1658,13 +1711,13 @@
         <v>16</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F25" s="16">
         <v>4</v>
       </c>
       <c r="G25" s="16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H25">
         <v>9</v>
@@ -1672,7 +1725,7 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>7</v>
@@ -1681,7 +1734,7 @@
         <v>16</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F26" s="16">
         <v>4</v>
@@ -1695,7 +1748,7 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>7</v>
@@ -1704,7 +1757,7 @@
         <v>16</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F27" s="16">
         <v>4</v>
@@ -1717,31 +1770,29 @@
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>7</v>
+      <c r="B28" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="F28" s="16">
-        <v>4</v>
-      </c>
-      <c r="G28" s="16">
-        <v>7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G28" s="16"/>
       <c r="H28">
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>8</v>
@@ -1762,7 +1813,7 @@
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>8</v>
@@ -1783,10 +1834,10 @@
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>8</v>
+        <v>57</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>16</v>
@@ -1795,7 +1846,7 @@
         <v>30</v>
       </c>
       <c r="F31" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G31" s="16"/>
       <c r="H31">
@@ -1804,7 +1855,7 @@
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>10</v>
@@ -1825,7 +1876,7 @@
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>10</v>
@@ -1846,10 +1897,10 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>10</v>
+        <v>193</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>16</v>
@@ -1857,17 +1908,15 @@
       <c r="E34" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F34" s="16">
-        <v>3</v>
-      </c>
+      <c r="F34" s="16"/>
       <c r="G34" s="16"/>
       <c r="H34">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="15" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>11</v>
@@ -1886,7 +1935,7 @@
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="15" t="s">
-        <v>133</v>
+        <v>195</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>11</v>
@@ -1894,9 +1943,7 @@
       <c r="D36" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="14" t="s">
-        <v>30</v>
-      </c>
+      <c r="E36" s="14"/>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
       <c r="H36">
@@ -1905,7 +1952,7 @@
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="15" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>11</v>
@@ -1913,7 +1960,9 @@
       <c r="D37" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="14"/>
+      <c r="E37" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
       <c r="H37">
@@ -1922,21 +1971,26 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>11</v>
+        <v>50</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
+      <c r="G38" s="16">
+        <v>8</v>
+      </c>
       <c r="H38">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="J38" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
@@ -1950,7 +2004,7 @@
         <v>16</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="F39" s="16"/>
       <c r="G39" s="16">
@@ -1974,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F40" s="16"/>
       <c r="G40" s="16">
@@ -1984,7 +2038,7 @@
         <v>8</v>
       </c>
       <c r="J40" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
@@ -1998,7 +2052,7 @@
         <v>16</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="F41" s="16"/>
       <c r="G41" s="16">
@@ -2008,7 +2062,7 @@
         <v>8</v>
       </c>
       <c r="J41" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
@@ -2022,7 +2076,7 @@
         <v>16</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F42" s="16"/>
       <c r="G42" s="16">
@@ -2046,14 +2100,14 @@
         <v>16</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F43" s="16"/>
       <c r="G43" s="16">
         <v>8</v>
       </c>
       <c r="H43">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J43" t="s">
         <v>165</v>
@@ -2070,14 +2124,14 @@
         <v>16</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="F44" s="16"/>
       <c r="G44" s="16">
         <v>8</v>
       </c>
       <c r="H44">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J44" t="s">
         <v>165</v>
@@ -2085,26 +2139,21 @@
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>12</v>
+        <v>119</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="F45" s="16"/>
-      <c r="G45" s="16">
-        <v>8</v>
-      </c>
+      <c r="G45" s="16"/>
       <c r="H45">
-        <v>10</v>
-      </c>
-      <c r="J45" t="s">
-        <v>165</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
@@ -2146,65 +2195,67 @@
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>30</v>
-      </c>
+      <c r="B48" s="15"/>
+      <c r="E48" s="14"/>
       <c r="F48" s="16"/>
       <c r="G48" s="16"/>
-      <c r="H48">
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="15"/>
-      <c r="E49" s="14"/>
+      <c r="D49" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="F49" s="16"/>
       <c r="G49" s="16"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>6</v>
+        <v>47</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>18</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="F50" s="16"/>
       <c r="G50" s="16"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>5</v>
+        <v>43</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>18</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>159</v>
+        <v>84</v>
       </c>
       <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
+      <c r="G51" s="16">
+        <v>3</v>
+      </c>
+      <c r="H51">
+        <v>7</v>
+      </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>7</v>
@@ -2213,7 +2264,7 @@
         <v>18</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F52" s="16"/>
       <c r="G52" s="16">
@@ -2225,28 +2276,26 @@
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>7</v>
+        <v>48</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D53" s="10" t="s">
         <v>18</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F53" s="16"/>
-      <c r="G53" s="16">
-        <v>3</v>
-      </c>
+      <c r="G53" s="16"/>
       <c r="H53">
         <v>7</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>8</v>
@@ -2255,7 +2304,7 @@
         <v>18</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F54" s="16"/>
       <c r="G54" s="16"/>
@@ -2265,26 +2314,24 @@
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>8</v>
+        <v>181</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="D55" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E55" s="14" t="s">
-        <v>82</v>
-      </c>
+      <c r="E55" s="14"/>
       <c r="F55" s="16"/>
       <c r="G55" s="16"/>
       <c r="H55">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" s="14" t="s">
-        <v>185</v>
+        <v>102</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>11</v>
@@ -2301,24 +2348,31 @@
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>11</v>
+        <v>85</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E57" s="14"/>
+      <c r="E57" s="14" t="s">
+        <v>85</v>
+      </c>
       <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
+      <c r="G57" s="16">
+        <v>3</v>
+      </c>
       <c r="H57">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="J57" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" s="14" t="s">
-        <v>85</v>
+        <v>172</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>12</v>
@@ -2327,22 +2381,17 @@
         <v>18</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>85</v>
+        <v>172</v>
       </c>
       <c r="F58" s="16"/>
-      <c r="G58" s="16">
-        <v>3</v>
-      </c>
-      <c r="H58">
-        <v>7</v>
-      </c>
+      <c r="G58" s="16"/>
       <c r="J58" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" s="14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>12</v>
@@ -2351,7 +2400,7 @@
         <v>18</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F59" s="16"/>
       <c r="G59" s="16"/>
@@ -2361,7 +2410,7 @@
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B60" s="14" t="s">
-        <v>173</v>
+        <v>42</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>12</v>
@@ -2370,17 +2419,22 @@
         <v>18</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>173</v>
+        <v>42</v>
       </c>
       <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
+      <c r="G60" s="16">
+        <v>3</v>
+      </c>
+      <c r="H60">
+        <v>7</v>
+      </c>
       <c r="J60" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="14" t="s">
-        <v>42</v>
+      <c r="B61" s="22" t="s">
+        <v>205</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>12</v>
@@ -2388,33 +2442,40 @@
       <c r="D61" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E61" s="14" t="s">
-        <v>42</v>
+      <c r="E61" s="22" t="s">
+        <v>205</v>
       </c>
       <c r="F61" s="16"/>
       <c r="G61" s="16">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H61">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J61" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="14"/>
-      <c r="C62" s="9" t="s">
-        <v>13</v>
+      <c r="B62" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E62" s="14"/>
+      <c r="E62" s="22" t="s">
+        <v>206</v>
+      </c>
       <c r="F62" s="16"/>
       <c r="G62" s="16"/>
       <c r="H62">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="J62" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
@@ -2447,7 +2508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="14"/>
       <c r="C65" s="9" t="s">
         <v>13</v>
@@ -2462,68 +2523,62 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="14"/>
+      <c r="C66" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="E66" s="14"/>
       <c r="F66" s="16"/>
       <c r="G66" s="16"/>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C67" s="2" t="s">
+      <c r="H66">
         <v>6</v>
       </c>
-      <c r="D67" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="14" t="s">
-        <v>155</v>
-      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="14"/>
+      <c r="E67" s="14"/>
       <c r="F67" s="16"/>
       <c r="G67" s="16"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>5</v>
+        <v>64</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="F68" s="16"/>
       <c r="G68" s="16"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>7</v>
+        <v>63</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F69" s="16"/>
-      <c r="G69" s="16">
-        <v>8</v>
-      </c>
-      <c r="H69">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G69" s="16"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>7</v>
@@ -2532,7 +2587,7 @@
         <v>17</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F70" s="16"/>
       <c r="G70" s="16">
@@ -2542,28 +2597,30 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>8</v>
+        <v>66</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
+      <c r="G71" s="16">
+        <v>8</v>
+      </c>
       <c r="H71">
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>8</v>
@@ -2572,7 +2629,7 @@
         <v>17</v>
       </c>
       <c r="E72" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="16"/>
@@ -2580,18 +2637,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>9</v>
+        <v>68</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F73" s="16"/>
       <c r="G73" s="16"/>
@@ -2599,9 +2656,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>9</v>
@@ -2610,7 +2667,7 @@
         <v>17</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F74" s="16"/>
       <c r="G74" s="16"/>
@@ -2618,18 +2675,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>10</v>
+        <v>72</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F75" s="16"/>
       <c r="G75" s="16"/>
@@ -2637,9 +2694,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>10</v>
@@ -2648,7 +2705,7 @@
         <v>17</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F76" s="16"/>
       <c r="G76" s="16"/>
@@ -2656,26 +2713,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>11</v>
+        <v>70</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="D77" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E77" s="14"/>
+      <c r="E77" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="F77" s="16"/>
       <c r="G77" s="16"/>
       <c r="H77">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="14" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>11</v>
@@ -2690,9 +2749,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" s="14" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>11</v>
@@ -2707,33 +2766,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>12</v>
+        <v>190</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="D80" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E80" s="14" t="s">
-        <v>104</v>
-      </c>
+      <c r="E80" s="14"/>
       <c r="F80" s="16"/>
-      <c r="G80" s="16">
-        <v>8</v>
-      </c>
+      <c r="G80" s="16"/>
       <c r="H80">
-        <v>8</v>
-      </c>
-      <c r="J80" t="s">
-        <v>167</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B81" s="14" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>12</v>
@@ -2742,7 +2794,7 @@
         <v>17</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F81" s="16"/>
       <c r="G81" s="16">
@@ -2757,7 +2809,7 @@
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B82" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>12</v>
@@ -2766,7 +2818,7 @@
         <v>17</v>
       </c>
       <c r="E82" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F82" s="16"/>
       <c r="G82" s="16">
@@ -2776,12 +2828,12 @@
         <v>8</v>
       </c>
       <c r="J82" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B83" s="14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>12</v>
@@ -2790,7 +2842,7 @@
         <v>17</v>
       </c>
       <c r="E83" s="14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F83" s="16"/>
       <c r="G83" s="16">
@@ -2805,16 +2857,16 @@
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B84" s="14" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="D84" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E84" s="14" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="F84" s="16"/>
       <c r="G84" s="16">
@@ -2829,7 +2881,7 @@
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B85" s="14" t="s">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>129</v>
@@ -2838,7 +2890,7 @@
         <v>17</v>
       </c>
       <c r="E85" s="14" t="s">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="F85" s="16"/>
       <c r="G85" s="16">
@@ -2853,7 +2905,7 @@
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B86" s="14" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>129</v>
@@ -2862,7 +2914,7 @@
         <v>17</v>
       </c>
       <c r="E86" s="14" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="F86" s="16"/>
       <c r="G86" s="16">
@@ -2877,7 +2929,7 @@
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B87" s="14" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>129</v>
@@ -2886,7 +2938,7 @@
         <v>17</v>
       </c>
       <c r="E87" s="14" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="F87" s="16"/>
       <c r="G87" s="16">
@@ -2896,21 +2948,21 @@
         <v>8</v>
       </c>
       <c r="J87" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B88" s="14" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="D88" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E88" s="14" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="F88" s="16"/>
       <c r="G88" s="16">
@@ -2920,21 +2972,31 @@
         <v>8</v>
       </c>
       <c r="J88" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C89" s="9" t="s">
-        <v>13</v>
+      <c r="B89" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="D89" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E89" s="14"/>
+      <c r="E89" s="14" t="s">
+        <v>103</v>
+      </c>
       <c r="F89" s="16"/>
-      <c r="G89" s="16"/>
+      <c r="G89" s="16">
+        <v>8</v>
+      </c>
       <c r="H89">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="J89" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.25">
@@ -2966,29 +3028,27 @@
       </c>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C92" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="E92" s="14"/>
       <c r="F92" s="16"/>
       <c r="G92" s="16"/>
+      <c r="H92">
+        <v>6</v>
+      </c>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B93" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D93" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E93" s="14" t="s">
-        <v>150</v>
-      </c>
+      <c r="E93" s="14"/>
       <c r="F93" s="16"/>
       <c r="G93" s="16"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B94" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>6</v>
@@ -2997,67 +3057,62 @@
         <v>19</v>
       </c>
       <c r="E94" s="14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F94" s="16"/>
       <c r="G94" s="16"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B95" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>5</v>
+        <v>161</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="D95" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E95" s="14" t="s">
-        <v>63</v>
+        <v>149</v>
       </c>
       <c r="F95" s="16"/>
       <c r="G95" s="16"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B96" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>7</v>
+        <v>207</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D96" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E96" s="14" t="s">
-        <v>121</v>
+        <v>208</v>
       </c>
       <c r="F96" s="16"/>
-      <c r="G96" s="16">
-        <v>4</v>
-      </c>
-      <c r="H96">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G96" s="16"/>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>7</v>
+        <v>63</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D97" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E97" s="14" t="s">
-        <v>153</v>
+        <v>63</v>
       </c>
       <c r="F97" s="16"/>
       <c r="G97" s="16"/>
     </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" s="14" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>7</v>
@@ -3066,14 +3121,19 @@
         <v>19</v>
       </c>
       <c r="E98" s="14" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="F98" s="16"/>
-      <c r="G98" s="16"/>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G98" s="16">
+        <v>4</v>
+      </c>
+      <c r="H98">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="14" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>7</v>
@@ -3082,14 +3142,14 @@
         <v>19</v>
       </c>
       <c r="E99" s="14" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="F99" s="16"/>
       <c r="G99" s="16"/>
     </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" s="14" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>7</v>
@@ -3098,14 +3158,14 @@
         <v>19</v>
       </c>
       <c r="E100" s="14" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="F100" s="16"/>
       <c r="G100" s="16"/>
     </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" s="14" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>7</v>
@@ -3114,14 +3174,14 @@
         <v>19</v>
       </c>
       <c r="E101" s="14" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="F101" s="16"/>
       <c r="G101" s="16"/>
     </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" s="14" t="s">
-        <v>124</v>
+        <v>186</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>7</v>
@@ -3130,51 +3190,51 @@
         <v>19</v>
       </c>
       <c r="E102" s="14" t="s">
-        <v>122</v>
+        <v>185</v>
       </c>
       <c r="F102" s="16"/>
-      <c r="G102" s="16">
-        <v>4</v>
-      </c>
-      <c r="H102">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G102" s="16"/>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>8</v>
+        <v>191</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D103" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E103" s="14" t="s">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="F103" s="16"/>
       <c r="G103" s="16"/>
     </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>8</v>
+        <v>124</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D104" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E104" s="14" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="F104" s="16"/>
-      <c r="G104" s="16"/>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G104" s="16">
+        <v>4</v>
+      </c>
+      <c r="H104">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105" s="14" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>8</v>
@@ -3183,14 +3243,14 @@
         <v>19</v>
       </c>
       <c r="E105" s="14" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="F105" s="16"/>
       <c r="G105" s="16"/>
     </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" s="14" t="s">
-        <v>186</v>
+        <v>127</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>8</v>
@@ -3199,14 +3259,14 @@
         <v>19</v>
       </c>
       <c r="E106" s="14" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="F106" s="16"/>
       <c r="G106" s="16"/>
     </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" s="14" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>8</v>
@@ -3215,14 +3275,14 @@
         <v>19</v>
       </c>
       <c r="E107" s="14" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="F107" s="16"/>
       <c r="G107" s="16"/>
     </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B108" s="14" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>8</v>
@@ -3231,14 +3291,14 @@
         <v>19</v>
       </c>
       <c r="E108" s="14" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="F108" s="16"/>
       <c r="G108" s="16"/>
     </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B109" s="14" t="s">
-        <v>124</v>
+        <v>186</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>8</v>
@@ -3247,75 +3307,61 @@
         <v>19</v>
       </c>
       <c r="E109" s="14" t="s">
-        <v>122</v>
+        <v>185</v>
       </c>
       <c r="F109" s="16"/>
       <c r="G109" s="16"/>
     </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B110" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C110" s="7" t="s">
-        <v>11</v>
+      <c r="C110" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D110" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E110" s="14"/>
+      <c r="E110" s="14" t="s">
+        <v>192</v>
+      </c>
       <c r="F110" s="16"/>
       <c r="G110" s="16"/>
     </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B111" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>12</v>
+        <v>124</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D111" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E111" s="14" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="F111" s="16"/>
-      <c r="G111" s="16">
-        <v>6</v>
-      </c>
-      <c r="H111">
-        <v>6</v>
-      </c>
-      <c r="J111" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G111" s="16"/>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="C112" s="8" t="s">
-        <v>12</v>
+        <v>187</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="D112" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E112" s="14" t="s">
-        <v>99</v>
-      </c>
+      <c r="E112" s="14"/>
       <c r="F112" s="16"/>
-      <c r="G112" s="16">
-        <v>6</v>
-      </c>
-      <c r="H112">
-        <v>6</v>
-      </c>
-      <c r="J112" t="s">
-        <v>165</v>
-      </c>
+      <c r="G112" s="16"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B113" s="14"/>
+      <c r="B113" s="14" t="s">
+        <v>125</v>
+      </c>
       <c r="C113" s="8" t="s">
         <v>12</v>
       </c>
@@ -3323,47 +3369,69 @@
         <v>19</v>
       </c>
       <c r="E113" s="14" t="s">
-        <v>170</v>
+        <v>96</v>
       </c>
       <c r="F113" s="16"/>
-      <c r="G113" s="16"/>
+      <c r="G113" s="16">
+        <v>6</v>
+      </c>
+      <c r="H113">
+        <v>6</v>
+      </c>
+      <c r="J113" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
+      <c r="B114" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E114" s="14" t="s">
+        <v>99</v>
+      </c>
       <c r="F114" s="16"/>
-      <c r="G114" s="16"/>
+      <c r="G114" s="16">
+        <v>6</v>
+      </c>
+      <c r="H114">
+        <v>6</v>
+      </c>
+      <c r="J114" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
+      <c r="C115" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E115" s="14" t="s">
+        <v>170</v>
+      </c>
       <c r="F115" s="16"/>
       <c r="G115" s="16"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B116" s="14"/>
-      <c r="C116" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D116" s="10" t="s">
-        <v>19</v>
-      </c>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
       <c r="E116" s="14"/>
       <c r="F116" s="16"/>
       <c r="G116" s="16"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B117" s="14"/>
-      <c r="C117" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D117" s="10" t="s">
-        <v>19</v>
-      </c>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
       <c r="E117" s="14"/>
       <c r="F117" s="16"/>
       <c r="G117" s="16"/>
@@ -3381,64 +3449,40 @@
       <c r="G118" s="16"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B119" s="14"/>
+      <c r="C119" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="E119" s="14"/>
       <c r="F119" s="16"/>
       <c r="G119" s="16"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="B120" s="14"/>
+      <c r="C120" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D120" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E120" s="14"/>
+      <c r="F120" s="16"/>
+      <c r="G120" s="16"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E121" s="14"/>
+      <c r="F121" s="16"/>
+      <c r="G121" s="16"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>162</v>
       </c>
-      <c r="B120" s="14" t="s">
+      <c r="B122" s="14" t="s">
         <v>94</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D120" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E120" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="F120" s="16"/>
-      <c r="G120" s="16">
-        <v>8</v>
-      </c>
-      <c r="H120">
-        <v>7</v>
-      </c>
-      <c r="J120" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B121" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C121" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D121" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E121" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="F121" s="16"/>
-      <c r="G121" s="16">
-        <v>9</v>
-      </c>
-      <c r="H121">
-        <v>8</v>
-      </c>
-      <c r="J121" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B122" s="14" t="s">
-        <v>187</v>
       </c>
       <c r="C122" s="8" t="s">
         <v>12</v>
@@ -3447,22 +3491,22 @@
         <v>27</v>
       </c>
       <c r="E122" s="14" t="s">
-        <v>187</v>
+        <v>94</v>
       </c>
       <c r="F122" s="16"/>
       <c r="G122" s="16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H122">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J122" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B123" s="14" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="C123" s="8" t="s">
         <v>12</v>
@@ -3471,7 +3515,7 @@
         <v>27</v>
       </c>
       <c r="E123" s="14" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="F123" s="16"/>
       <c r="G123" s="16">
@@ -3481,12 +3525,12 @@
         <v>8</v>
       </c>
       <c r="J123" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B124" s="14" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="C124" s="8" t="s">
         <v>12</v>
@@ -3495,22 +3539,22 @@
         <v>27</v>
       </c>
       <c r="E124" s="14" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="F124" s="16"/>
       <c r="G124" s="16">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H124">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J124" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B125" s="14" t="s">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="C125" s="8" t="s">
         <v>12</v>
@@ -3519,7 +3563,7 @@
         <v>27</v>
       </c>
       <c r="E125" s="14" t="s">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="F125" s="16"/>
       <c r="G125" s="16">
@@ -3529,12 +3573,12 @@
         <v>8</v>
       </c>
       <c r="J125" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B126" s="14" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>12</v>
@@ -3543,14 +3587,14 @@
         <v>27</v>
       </c>
       <c r="E126" s="14" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F126" s="16"/>
       <c r="G126" s="16">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H126">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J126" t="s">
         <v>171</v>
@@ -3558,7 +3602,7 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B127" s="14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C127" s="8" t="s">
         <v>12</v>
@@ -3567,7 +3611,7 @@
         <v>27</v>
       </c>
       <c r="E127" s="14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F127" s="16"/>
       <c r="G127" s="16">
@@ -3577,12 +3621,12 @@
         <v>8</v>
       </c>
       <c r="J127" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B128" s="14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C128" s="8" t="s">
         <v>12</v>
@@ -3591,7 +3635,7 @@
         <v>27</v>
       </c>
       <c r="E128" s="14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F128" s="16"/>
       <c r="G128" s="16">
@@ -3601,12 +3645,12 @@
         <v>8</v>
       </c>
       <c r="J128" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B129" s="14" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C129" s="8" t="s">
         <v>12</v>
@@ -3615,7 +3659,7 @@
         <v>27</v>
       </c>
       <c r="E129" s="14" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="F129" s="16"/>
       <c r="G129" s="16">
@@ -3625,121 +3669,121 @@
         <v>8</v>
       </c>
       <c r="J129" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E130" s="14"/>
+      <c r="B130" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E130" s="14" t="s">
+        <v>177</v>
+      </c>
       <c r="F130" s="16"/>
-      <c r="G130" s="16"/>
+      <c r="G130" s="16">
+        <v>9</v>
+      </c>
+      <c r="H130">
+        <v>8</v>
+      </c>
+      <c r="J130" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B131" s="14" t="s">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="C131" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="E131" s="14" t="s">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="F131" s="16"/>
       <c r="G131" s="16">
+        <v>9</v>
+      </c>
+      <c r="H131">
+        <v>8</v>
+      </c>
+      <c r="J131" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E132" s="14"/>
+      <c r="F132" s="16"/>
+      <c r="G132" s="16"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B133" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E133" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F133" s="16"/>
+      <c r="G133" s="16">
         <v>7</v>
       </c>
-      <c r="H131">
-        <v>8</v>
-      </c>
-      <c r="J131" t="s">
+      <c r="H133">
+        <v>8</v>
+      </c>
+      <c r="J133" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B132" s="14" t="s">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B134" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C132" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D132" s="10" t="s">
+      <c r="C134" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="E132" s="14" t="s">
+      <c r="E134" s="14" t="s">
         <v>98</v>
-      </c>
-      <c r="F132" s="16"/>
-      <c r="G132" s="16">
-        <v>7</v>
-      </c>
-      <c r="H132">
-        <v>9</v>
-      </c>
-      <c r="J132" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E133" s="14"/>
-      <c r="F133" s="16"/>
-      <c r="G133" s="16"/>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>136</v>
-      </c>
-      <c r="B134" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D134" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E134" s="14" t="s">
-        <v>109</v>
       </c>
       <c r="F134" s="16"/>
       <c r="G134" s="16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H134">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J134" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B135" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D135" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E135" s="14" t="s">
-        <v>110</v>
-      </c>
+      <c r="E135" s="14"/>
       <c r="F135" s="16"/>
-      <c r="G135" s="16">
-        <v>9</v>
-      </c>
-      <c r="H135">
-        <v>8</v>
-      </c>
-      <c r="J135" t="s">
-        <v>164</v>
-      </c>
+      <c r="G135" s="16"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>136</v>
+      </c>
       <c r="B136" s="14" t="s">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="C136" s="8" t="s">
         <v>12</v>
@@ -3748,11 +3792,11 @@
         <v>112</v>
       </c>
       <c r="E136" s="14" t="s">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="F136" s="16"/>
       <c r="G136" s="16">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H136">
         <v>8</v>
@@ -3763,7 +3807,7 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B137" s="14" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>12</v>
@@ -3772,22 +3816,22 @@
         <v>112</v>
       </c>
       <c r="E137" s="14" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="F137" s="16"/>
       <c r="G137" s="16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H137">
         <v>8</v>
       </c>
       <c r="J137" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B138" s="14" t="s">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="C138" s="8" t="s">
         <v>12</v>
@@ -3796,78 +3840,78 @@
         <v>112</v>
       </c>
       <c r="E138" s="14" t="s">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="F138" s="16"/>
       <c r="G138" s="16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H138">
         <v>8</v>
       </c>
       <c r="J138" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E139" s="14"/>
+      <c r="B139" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E139" s="14" t="s">
+        <v>137</v>
+      </c>
       <c r="F139" s="16"/>
-      <c r="G139" s="16"/>
+      <c r="G139" s="16">
+        <v>8</v>
+      </c>
+      <c r="H139">
+        <v>8</v>
+      </c>
+      <c r="J139" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>118</v>
-      </c>
       <c r="B140" s="14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C140" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E140" s="14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F140" s="16"/>
       <c r="G140" s="16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H140">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J140" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B141" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D141" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="E141" s="14" t="s">
-        <v>115</v>
-      </c>
+      <c r="E141" s="14"/>
       <c r="F141" s="16"/>
-      <c r="G141" s="16">
-        <v>6</v>
-      </c>
-      <c r="H141">
-        <v>7</v>
-      </c>
-      <c r="J141" t="s">
-        <v>171</v>
-      </c>
+      <c r="G141" s="16"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>118</v>
+      </c>
       <c r="B142" s="14" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="C142" s="8" t="s">
         <v>12</v>
@@ -3876,7 +3920,7 @@
         <v>113</v>
       </c>
       <c r="E142" s="14" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="F142" s="16"/>
       <c r="G142" s="16">
@@ -3891,7 +3935,7 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B143" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C143" s="8" t="s">
         <v>12</v>
@@ -3900,7 +3944,7 @@
         <v>113</v>
       </c>
       <c r="E143" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F143" s="16"/>
       <c r="G143" s="16">
@@ -3915,7 +3959,7 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B144" s="14" t="s">
-        <v>143</v>
+        <v>42</v>
       </c>
       <c r="C144" s="8" t="s">
         <v>12</v>
@@ -3924,7 +3968,7 @@
         <v>113</v>
       </c>
       <c r="E144" s="14" t="s">
-        <v>143</v>
+        <v>42</v>
       </c>
       <c r="F144" s="16"/>
       <c r="G144" s="16">
@@ -3939,7 +3983,7 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B145" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C145" s="8" t="s">
         <v>12</v>
@@ -3948,82 +3992,88 @@
         <v>113</v>
       </c>
       <c r="E145" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F145" s="16"/>
       <c r="G145" s="16">
         <v>6</v>
       </c>
       <c r="H145">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J145" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E146" s="14"/>
+      <c r="B146" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E146" s="14" t="s">
+        <v>143</v>
+      </c>
       <c r="F146" s="16"/>
-      <c r="G146" s="16"/>
+      <c r="G146" s="16">
+        <v>6</v>
+      </c>
+      <c r="H146">
+        <v>7</v>
+      </c>
+      <c r="J146" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>139</v>
-      </c>
       <c r="B147" s="14" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="C147" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="D147" s="10" t="s">
+        <v>113</v>
+      </c>
       <c r="E147" s="14" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="F147" s="16"/>
       <c r="G147" s="16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H147">
         <v>8</v>
       </c>
       <c r="J147" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B148" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="C148" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E148" s="14" t="s">
-        <v>138</v>
-      </c>
+      <c r="E148" s="14"/>
       <c r="F148" s="16"/>
-      <c r="G148" s="16">
-        <v>9</v>
-      </c>
-      <c r="H148">
-        <v>8</v>
-      </c>
-      <c r="J148" t="s">
-        <v>164</v>
-      </c>
+      <c r="G148" s="16"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>139</v>
+      </c>
       <c r="B149" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C149" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E149" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F149" s="16"/>
       <c r="G149" s="16">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H149">
         <v>8</v>
@@ -4034,17 +4084,17 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B150" s="14" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C150" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E150" s="14" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F150" s="16"/>
       <c r="G150" s="16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H150">
         <v>8</v>
@@ -4055,17 +4105,17 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B151" s="14" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C151" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E151" s="14" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F151" s="16"/>
       <c r="G151" s="16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H151">
         <v>8</v>
@@ -4075,64 +4125,96 @@
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B152" s="20" t="s">
+      <c r="B152" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E152" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="F152" s="16"/>
+      <c r="G152" s="16">
+        <v>7</v>
+      </c>
+      <c r="H152">
+        <v>8</v>
+      </c>
+      <c r="J152" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B153" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E153" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F153" s="16"/>
+      <c r="G153" s="16">
+        <v>7</v>
+      </c>
+      <c r="H153">
+        <v>8</v>
+      </c>
+      <c r="J153" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B154" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="C152" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D152" s="18"/>
-      <c r="E152" s="20" t="s">
+      <c r="C154" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D154" s="18"/>
+      <c r="E154" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="F152" s="21"/>
-      <c r="G152" s="21">
+      <c r="F154" s="21"/>
+      <c r="G154" s="21">
         <v>9</v>
       </c>
-      <c r="H152" s="19">
-        <v>8</v>
-      </c>
-      <c r="I152" s="19"/>
-      <c r="J152" s="19" t="s">
+      <c r="H154" s="19">
+        <v>8</v>
+      </c>
+      <c r="I154" s="19"/>
+      <c r="J154" s="19" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B153" s="20" t="s">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B155" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="C153" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D153" s="18"/>
-      <c r="E153" s="20" t="s">
+      <c r="C155" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D155" s="18"/>
+      <c r="E155" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="F153" s="21"/>
-      <c r="G153" s="21">
+      <c r="F155" s="21"/>
+      <c r="G155" s="21">
         <v>4</v>
       </c>
-      <c r="H153" s="19">
+      <c r="H155" s="19">
         <v>4</v>
       </c>
-      <c r="I153" s="19"/>
-      <c r="J153" s="19" t="s">
+      <c r="I155" s="19"/>
+      <c r="J155" s="19" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E154" s="14"/>
-      <c r="F154" s="16"/>
-      <c r="G154" s="10"/>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E155" s="14"/>
-      <c r="F155" s="14"/>
-      <c r="G155" s="10"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E156" s="14"/>
-      <c r="F156" s="14"/>
+      <c r="F156" s="16"/>
       <c r="G156" s="10"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
@@ -4143,10 +4225,12 @@
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E158" s="14"/>
       <c r="F158" s="14"/>
+      <c r="G158" s="10"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E159" s="14"/>
       <c r="F159" s="14"/>
+      <c r="G159" s="10"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E160" s="14"/>
@@ -4236,8 +4320,16 @@
       <c r="E181" s="14"/>
       <c r="F181" s="14"/>
     </row>
+    <row r="182" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E182" s="14"/>
+      <c r="F182" s="14"/>
+    </row>
+    <row r="183" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E183" s="14"/>
+      <c r="F183" s="14"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G81">
+  <autoFilter ref="A1:G82">
     <sortState ref="A2:F64">
       <sortCondition ref="D1:D64"/>
     </sortState>
